--- a/myData/INPUT_R_1225sk2020_LM.xlsx
+++ b/myData/INPUT_R_1225sk2020_LM.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roberto_m\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\39348\OneDrive\Desktop\LAVORO_CHECCO\CALIBRAZIONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{857F9811-8D81-4812-AB1E-60DDA6C48A4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11880" tabRatio="907"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="907" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="d_site" sheetId="1" r:id="rId1"/>
@@ -28,7 +29,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">input_marklund!$B$1:$B$123</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Marklund_method_output!$C$1:$C$124</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -48,26 +49,17 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={4E69A9CD-84F1-4692-9CF7-9C053CD7FCB3}</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Commento in thread]
+        <t>[Commento in thread]
 La versione di Excel in uso consente di leggere questo commento in thread, ma tutte le modifiche a esso apportate verranno rimosse se il file viene aperto in una versione più recente di Excel. Ulteriori informazioni: https://go.microsoft.com/fwlink/?linkid=870924
 Commento:
 la specie del sito e' Picea abies'</t>
-        </r>
       </text>
     </comment>
   </commentList>
@@ -75,26 +67,17 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={F31F0CEA-684F-4DA9-BDED-E7524F401A2E}</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Commento in thread]
+        <t>[Commento in thread]
 La versione di Excel in uso consente di leggere questo commento in thread, ma tutte le modifiche a esso apportate verranno rimosse se il file viene aperto in una versione più recente di Excel. Ulteriori informazioni: https://go.microsoft.com/fwlink/?linkid=870924
 Commento:
 la specie del sito e' Picea abies'</t>
-        </r>
       </text>
     </comment>
   </commentList>
@@ -102,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1115" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1115" uniqueCount="322">
   <si>
     <t>siteName</t>
   </si>
@@ -1052,51 +1035,6 @@
     <t>24.f</t>
   </si>
   <si>
-    <t>1961-13</t>
-  </si>
-  <si>
-    <t>1961-19</t>
-  </si>
-  <si>
-    <t>1961-31</t>
-  </si>
-  <si>
-    <t>1961-35</t>
-  </si>
-  <si>
-    <t>1961-39</t>
-  </si>
-  <si>
-    <t>1961-43</t>
-  </si>
-  <si>
-    <t>1961-49</t>
-  </si>
-  <si>
-    <t>1961-55</t>
-  </si>
-  <si>
-    <t>1961-59</t>
-  </si>
-  <si>
-    <t>1961-63</t>
-  </si>
-  <si>
-    <t>1961-69</t>
-  </si>
-  <si>
-    <t>1961-81</t>
-  </si>
-  <si>
-    <t>1961-85</t>
-  </si>
-  <si>
-    <t>1961-89</t>
-  </si>
-  <si>
-    <t>1961-95</t>
-  </si>
-  <si>
     <t>2021-02</t>
   </si>
   <si>
@@ -1109,21 +1047,21 @@
     <t>n_mese</t>
   </si>
   <si>
-    <t>1961-25</t>
-  </si>
-  <si>
-    <t>1961-75</t>
+    <t>1961-09</t>
+  </si>
+  <si>
+    <t>1961-11</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0.00000_-;\-* #,##0.00000_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="0.0"/>
-    <numFmt numFmtId="167" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00000_-;\-* #,##0.00000_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -1486,9 +1424,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1509,7 +1447,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1533,14 +1471,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1570,7 +1508,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1582,7 +1520,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1591,16 +1529,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1621,10 +1559,10 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1666,8 +1604,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1680,10 +1616,19 @@
     <xf numFmtId="1" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1698,16 +1643,10 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Migliaia 2" xfId="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Migliaia 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2040,28 +1979,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:I21"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="7.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="23.44140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.6640625" style="35" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8" style="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.33203125" style="35" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" style="35" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.6640625" style="35" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.33203125" style="35" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.6640625" style="35" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="7.6640625" style="35" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.109375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -2093,7 +2032,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>14</v>
       </c>
@@ -2106,16 +2045,16 @@
       <c r="D2" s="5">
         <v>100</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="5">
         <v>3</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="5">
         <v>999</v>
       </c>
-      <c r="G2" s="6">
-        <v>0</v>
-      </c>
-      <c r="H2" s="6">
+      <c r="G2" s="5">
+        <v>0</v>
+      </c>
+      <c r="H2" s="5">
         <v>106</v>
       </c>
       <c r="I2" s="5" t="s">
@@ -2125,7 +2064,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>15</v>
       </c>
@@ -2138,16 +2077,16 @@
       <c r="D3" s="64">
         <v>100</v>
       </c>
-      <c r="E3" s="66">
+      <c r="E3" s="64">
         <v>3</v>
       </c>
-      <c r="F3" s="66">
+      <c r="F3" s="64">
         <v>999</v>
       </c>
-      <c r="G3" s="66">
-        <v>0</v>
-      </c>
-      <c r="H3" s="66">
+      <c r="G3" s="64">
+        <v>0</v>
+      </c>
+      <c r="H3" s="64">
         <v>106</v>
       </c>
       <c r="I3" s="64" t="s">
@@ -2157,7 +2096,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="49" t="s">
         <v>16</v>
       </c>
@@ -2170,26 +2109,26 @@
       <c r="D4" s="5">
         <v>100</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="5">
         <v>3</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="5">
         <v>999</v>
       </c>
-      <c r="G4" s="6">
-        <v>0</v>
-      </c>
-      <c r="H4" s="6">
+      <c r="G4" s="5">
+        <v>0</v>
+      </c>
+      <c r="H4" s="5">
         <v>106</v>
       </c>
       <c r="I4" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="J4" s="65" t="s">
+      <c r="J4" s="73" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="47" t="s">
         <v>34</v>
       </c>
@@ -2202,26 +2141,26 @@
       <c r="D5" s="5">
         <v>100</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="5">
         <v>3</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="5">
         <v>999</v>
       </c>
-      <c r="G5" s="6">
-        <v>0</v>
-      </c>
-      <c r="H5" s="6">
+      <c r="G5" s="5">
+        <v>0</v>
+      </c>
+      <c r="H5" s="5">
         <v>106</v>
       </c>
-      <c r="I5" s="65" t="s">
+      <c r="I5" s="73" t="s">
         <v>40</v>
       </c>
-      <c r="J5" s="65" t="s">
+      <c r="J5" s="73" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="49" t="s">
         <v>17</v>
       </c>
@@ -2234,26 +2173,26 @@
       <c r="D6" s="5">
         <v>100</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="5">
         <v>3</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="5">
         <v>999</v>
       </c>
-      <c r="G6" s="6">
-        <v>0</v>
-      </c>
-      <c r="H6" s="6">
+      <c r="G6" s="5">
+        <v>0</v>
+      </c>
+      <c r="H6" s="5">
         <v>106</v>
       </c>
-      <c r="I6" s="65" t="s">
+      <c r="I6" s="73" t="s">
         <v>175</v>
       </c>
-      <c r="J6" s="65" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J6" s="73" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="47" t="s">
         <v>18</v>
       </c>
@@ -2266,26 +2205,26 @@
       <c r="D7" s="5">
         <v>100</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="5">
         <v>3</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="5">
         <v>999</v>
       </c>
-      <c r="G7" s="6">
-        <v>0</v>
-      </c>
-      <c r="H7" s="6">
+      <c r="G7" s="5">
+        <v>0</v>
+      </c>
+      <c r="H7" s="5">
         <v>106</v>
       </c>
-      <c r="I7" s="65" t="s">
+      <c r="I7" s="73" t="s">
         <v>38</v>
       </c>
-      <c r="J7" s="65" t="s">
+      <c r="J7" s="73" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="47" t="s">
         <v>35</v>
       </c>
@@ -2298,26 +2237,26 @@
       <c r="D8" s="5">
         <v>100</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="5">
         <v>3</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="5">
         <v>999</v>
       </c>
-      <c r="G8" s="6">
-        <v>0</v>
-      </c>
-      <c r="H8" s="6">
+      <c r="G8" s="5">
+        <v>0</v>
+      </c>
+      <c r="H8" s="5">
         <v>106</v>
       </c>
-      <c r="I8" s="65" t="s">
+      <c r="I8" s="73" t="s">
         <v>40</v>
       </c>
-      <c r="J8" s="65" t="s">
+      <c r="J8" s="73" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="49" t="s">
         <v>19</v>
       </c>
@@ -2330,26 +2269,26 @@
       <c r="D9" s="5">
         <v>100</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="5">
         <v>3</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="5">
         <v>999</v>
       </c>
-      <c r="G9" s="6">
-        <v>0</v>
-      </c>
-      <c r="H9" s="6">
+      <c r="G9" s="5">
+        <v>0</v>
+      </c>
+      <c r="H9" s="5">
         <v>106</v>
       </c>
-      <c r="I9" s="65" t="s">
+      <c r="I9" s="73" t="s">
         <v>38</v>
       </c>
-      <c r="J9" s="65" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J9" s="73" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="49" t="s">
         <v>20</v>
       </c>
@@ -2362,26 +2301,26 @@
       <c r="D10" s="5">
         <v>100</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="5">
         <v>3</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="5">
         <v>999</v>
       </c>
-      <c r="G10" s="6">
-        <v>0</v>
-      </c>
-      <c r="H10" s="6">
+      <c r="G10" s="5">
+        <v>0</v>
+      </c>
+      <c r="H10" s="5">
         <v>106</v>
       </c>
-      <c r="I10" s="65" t="s">
+      <c r="I10" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="J10" s="65" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J10" s="73" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="49" t="s">
         <v>21</v>
       </c>
@@ -2394,26 +2333,26 @@
       <c r="D11" s="5">
         <v>100</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="5">
         <v>3</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="5">
         <v>999</v>
       </c>
-      <c r="G11" s="6">
-        <v>0</v>
-      </c>
-      <c r="H11" s="6">
+      <c r="G11" s="5">
+        <v>0</v>
+      </c>
+      <c r="H11" s="5">
         <v>106</v>
       </c>
-      <c r="I11" s="65" t="s">
+      <c r="I11" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="J11" s="65" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J11" s="73" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="47" t="s">
         <v>22</v>
       </c>
@@ -2426,26 +2365,26 @@
       <c r="D12" s="5">
         <v>100</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="5">
         <v>3</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="5">
         <v>999</v>
       </c>
-      <c r="G12" s="6">
-        <v>0</v>
-      </c>
-      <c r="H12" s="6">
+      <c r="G12" s="5">
+        <v>0</v>
+      </c>
+      <c r="H12" s="5">
         <v>106</v>
       </c>
-      <c r="I12" s="65" t="s">
+      <c r="I12" s="73" t="s">
         <v>39</v>
       </c>
       <c r="J12" s="5" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="47" t="s">
         <v>23</v>
       </c>
@@ -2458,26 +2397,26 @@
       <c r="D13" s="5">
         <v>100</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="5">
         <v>3</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="5">
         <v>999</v>
       </c>
-      <c r="G13" s="6">
-        <v>0</v>
-      </c>
-      <c r="H13" s="6">
+      <c r="G13" s="5">
+        <v>0</v>
+      </c>
+      <c r="H13" s="5">
         <v>106</v>
       </c>
-      <c r="I13" s="65" t="s">
+      <c r="I13" s="73" t="s">
         <v>39</v>
       </c>
       <c r="J13" s="5" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="47" t="s">
         <v>24</v>
       </c>
@@ -2490,26 +2429,26 @@
       <c r="D14" s="5">
         <v>100</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="5">
         <v>3</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="5">
         <v>999</v>
       </c>
-      <c r="G14" s="6">
-        <v>0</v>
-      </c>
-      <c r="H14" s="6">
+      <c r="G14" s="5">
+        <v>0</v>
+      </c>
+      <c r="H14" s="5">
         <v>106</v>
       </c>
-      <c r="I14" s="65" t="s">
+      <c r="I14" s="73" t="s">
         <v>39</v>
       </c>
       <c r="J14" s="5" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="49" t="s">
         <v>25</v>
       </c>
@@ -2522,26 +2461,26 @@
       <c r="D15" s="5">
         <v>100</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="5">
         <v>3</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15" s="5">
         <v>999</v>
       </c>
-      <c r="G15" s="6">
-        <v>0</v>
-      </c>
-      <c r="H15" s="6">
+      <c r="G15" s="5">
+        <v>0</v>
+      </c>
+      <c r="H15" s="5">
         <v>106</v>
       </c>
-      <c r="I15" s="65" t="s">
+      <c r="I15" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="J15" s="65" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J15" s="73" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="49" t="s">
         <v>26</v>
       </c>
@@ -2554,26 +2493,26 @@
       <c r="D16" s="5">
         <v>100</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="5">
         <v>3</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F16" s="5">
         <v>999</v>
       </c>
-      <c r="G16" s="6">
-        <v>0</v>
-      </c>
-      <c r="H16" s="6">
+      <c r="G16" s="5">
+        <v>0</v>
+      </c>
+      <c r="H16" s="5">
         <v>106</v>
       </c>
-      <c r="I16" s="65" t="s">
+      <c r="I16" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="J16" s="65" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J16" s="73" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="47" t="s">
         <v>27</v>
       </c>
@@ -2586,26 +2525,26 @@
       <c r="D17" s="5">
         <v>100</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17" s="5">
         <v>3</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F17" s="5">
         <v>999</v>
       </c>
-      <c r="G17" s="6">
-        <v>0</v>
-      </c>
-      <c r="H17" s="6">
+      <c r="G17" s="5">
+        <v>0</v>
+      </c>
+      <c r="H17" s="5">
         <v>106</v>
       </c>
-      <c r="I17" s="65" t="s">
+      <c r="I17" s="73" t="s">
         <v>38</v>
       </c>
       <c r="J17" s="5" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="47" t="s">
         <v>28</v>
       </c>
@@ -2618,26 +2557,26 @@
       <c r="D18" s="5">
         <v>100</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E18" s="5">
         <v>3</v>
       </c>
-      <c r="F18" s="6">
+      <c r="F18" s="5">
         <v>999</v>
       </c>
-      <c r="G18" s="6">
-        <v>0</v>
-      </c>
-      <c r="H18" s="6">
+      <c r="G18" s="5">
+        <v>0</v>
+      </c>
+      <c r="H18" s="5">
         <v>106</v>
       </c>
-      <c r="I18" s="65" t="s">
+      <c r="I18" s="73" t="s">
         <v>38</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="49" t="s">
         <v>30</v>
       </c>
@@ -2650,26 +2589,26 @@
       <c r="D19" s="5">
         <v>100</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E19" s="5">
         <v>3</v>
       </c>
-      <c r="F19" s="6">
+      <c r="F19" s="5">
         <v>999</v>
       </c>
-      <c r="G19" s="6">
-        <v>0</v>
-      </c>
-      <c r="H19" s="6">
+      <c r="G19" s="5">
+        <v>0</v>
+      </c>
+      <c r="H19" s="5">
         <v>106</v>
       </c>
-      <c r="I19" s="65" t="s">
+      <c r="I19" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="J19" s="65" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J19" s="73" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="49" t="s">
         <v>31</v>
       </c>
@@ -2682,26 +2621,26 @@
       <c r="D20" s="5">
         <v>100</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E20" s="5">
         <v>3</v>
       </c>
-      <c r="F20" s="6">
+      <c r="F20" s="5">
         <v>999</v>
       </c>
-      <c r="G20" s="6">
-        <v>0</v>
-      </c>
-      <c r="H20" s="6">
+      <c r="G20" s="5">
+        <v>0</v>
+      </c>
+      <c r="H20" s="5">
         <v>106</v>
       </c>
-      <c r="I20" s="65" t="s">
+      <c r="I20" s="73" t="s">
         <v>38</v>
       </c>
-      <c r="J20" s="65" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J20" s="73" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="49" t="s">
         <v>29</v>
       </c>
@@ -2714,26 +2653,26 @@
       <c r="D21" s="5">
         <v>100</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E21" s="5">
         <v>3</v>
       </c>
-      <c r="F21" s="6">
+      <c r="F21" s="5">
         <v>999</v>
       </c>
-      <c r="G21" s="6">
-        <v>0</v>
-      </c>
-      <c r="H21" s="6">
+      <c r="G21" s="5">
+        <v>0</v>
+      </c>
+      <c r="H21" s="5">
         <v>106</v>
       </c>
-      <c r="I21" s="65" t="s">
+      <c r="I21" s="73" t="s">
         <v>38</v>
       </c>
-      <c r="J21" s="65" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J21" s="73" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="47" t="s">
         <v>32</v>
       </c>
@@ -2746,26 +2685,26 @@
       <c r="D22" s="5">
         <v>100</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E22" s="5">
         <v>3</v>
       </c>
-      <c r="F22" s="6">
+      <c r="F22" s="5">
         <v>999</v>
       </c>
-      <c r="G22" s="6">
-        <v>0</v>
-      </c>
-      <c r="H22" s="6">
+      <c r="G22" s="5">
+        <v>0</v>
+      </c>
+      <c r="H22" s="5">
         <v>106</v>
       </c>
-      <c r="I22" s="65" t="s">
+      <c r="I22" s="73" t="s">
         <v>39</v>
       </c>
       <c r="J22" s="5" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="47" t="s">
         <v>36</v>
       </c>
@@ -2778,26 +2717,26 @@
       <c r="D23" s="5">
         <v>100</v>
       </c>
-      <c r="E23" s="6">
+      <c r="E23" s="5">
         <v>3</v>
       </c>
-      <c r="F23" s="6">
+      <c r="F23" s="5">
         <v>999</v>
       </c>
-      <c r="G23" s="6">
-        <v>0</v>
-      </c>
-      <c r="H23" s="6">
+      <c r="G23" s="5">
+        <v>0</v>
+      </c>
+      <c r="H23" s="5">
         <v>106</v>
       </c>
-      <c r="I23" s="65" t="s">
+      <c r="I23" s="73" t="s">
         <v>41</v>
       </c>
       <c r="J23" s="5" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="49" t="s">
         <v>33</v>
       </c>
@@ -2810,26 +2749,26 @@
       <c r="D24" s="5">
         <v>100</v>
       </c>
-      <c r="E24" s="6">
+      <c r="E24" s="5">
         <v>3</v>
       </c>
-      <c r="F24" s="6">
+      <c r="F24" s="5">
         <v>999</v>
       </c>
-      <c r="G24" s="6">
-        <v>0</v>
-      </c>
-      <c r="H24" s="6">
+      <c r="G24" s="5">
+        <v>0</v>
+      </c>
+      <c r="H24" s="5">
         <v>106</v>
       </c>
-      <c r="I24" s="65" t="s">
+      <c r="I24" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="J24" s="65" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J24" s="73" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="49" t="s">
         <v>37</v>
       </c>
@@ -2842,23 +2781,23 @@
       <c r="D25" s="5">
         <v>100</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E25" s="5">
         <v>3</v>
       </c>
-      <c r="F25" s="6">
+      <c r="F25" s="5">
         <v>999</v>
       </c>
-      <c r="G25" s="6">
-        <v>0</v>
-      </c>
-      <c r="H25" s="6">
+      <c r="G25" s="5">
+        <v>0</v>
+      </c>
+      <c r="H25" s="5">
         <v>106</v>
       </c>
-      <c r="I25" s="65" t="s">
+      <c r="I25" s="73" t="s">
         <v>41</v>
       </c>
-      <c r="J25" s="65" t="s">
-        <v>333</v>
+      <c r="J25" s="73" t="s">
+        <v>318</v>
       </c>
     </row>
   </sheetData>
@@ -2869,28 +2808,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="25.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -2919,7 +2858,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>14</v>
       </c>
@@ -2951,7 +2890,7 @@
         <v>11.08788798</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>15</v>
       </c>
@@ -2962,7 +2901,7 @@
         <v>57</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>192</v>
+        <v>320</v>
       </c>
       <c r="E3" s="5">
         <v>0.5</v>
@@ -2983,7 +2922,7 @@
         <v>13.034650490000001</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="49" t="s">
         <v>16</v>
       </c>
@@ -2994,7 +2933,7 @@
         <v>57</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>192</v>
+        <v>320</v>
       </c>
       <c r="E4" s="5">
         <v>0.5</v>
@@ -3015,7 +2954,7 @@
         <v>11.150503390000001</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="47" t="s">
         <v>34</v>
       </c>
@@ -3047,7 +2986,7 @@
         <v>11.230613999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="49" t="s">
         <v>17</v>
       </c>
@@ -3058,7 +2997,7 @@
         <v>57</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>192</v>
+        <v>320</v>
       </c>
       <c r="E6" s="5">
         <v>0.5</v>
@@ -3079,7 +3018,7 @@
         <v>12.382978769999999</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="47" t="s">
         <v>18</v>
       </c>
@@ -3111,7 +3050,7 @@
         <v>12.63077966</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="47" t="s">
         <v>35</v>
       </c>
@@ -3143,7 +3082,7 @@
         <v>15.46440681</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="49" t="s">
         <v>19</v>
       </c>
@@ -3154,7 +3093,7 @@
         <v>57</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>316</v>
+        <v>192</v>
       </c>
       <c r="E9" s="5">
         <v>0.5</v>
@@ -3175,7 +3114,7 @@
         <v>17.48141957</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="49" t="s">
         <v>20</v>
       </c>
@@ -3186,7 +3125,7 @@
         <v>57</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="E10" s="5">
         <v>0.5</v>
@@ -3207,7 +3146,7 @@
         <v>13.284607510000001</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="49" t="s">
         <v>21</v>
       </c>
@@ -3218,7 +3157,7 @@
         <v>57</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
       <c r="E11" s="5">
         <v>0.5</v>
@@ -3226,17 +3165,17 @@
       <c r="F11" s="5">
         <v>1711</v>
       </c>
-      <c r="G11" s="77">
+      <c r="G11" s="71">
         <v>59.49796679</v>
       </c>
       <c r="H11" s="37">
         <v>14.0786912</v>
       </c>
-      <c r="I11" s="78">
+      <c r="I11" s="72">
         <v>11.618318540000001</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="47" t="s">
         <v>22</v>
       </c>
@@ -3247,7 +3186,7 @@
         <v>57</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="E12" s="5">
         <v>0.5</v>
@@ -3268,7 +3207,7 @@
         <v>18.135709210000002</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="47" t="s">
         <v>23</v>
       </c>
@@ -3279,7 +3218,7 @@
         <v>57</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="E13" s="5">
         <v>0.5</v>
@@ -3300,7 +3239,7 @@
         <v>17.673607780000001</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="47" t="s">
         <v>24</v>
       </c>
@@ -3311,7 +3250,7 @@
         <v>57</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="E14" s="5">
         <v>0.5</v>
@@ -3332,7 +3271,7 @@
         <v>13.532044089999999</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="49" t="s">
         <v>25</v>
       </c>
@@ -3364,7 +3303,7 @@
         <v>18.252264530000001</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="49" t="s">
         <v>26</v>
       </c>
@@ -3375,7 +3314,7 @@
         <v>57</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E16" s="5">
         <v>0.5</v>
@@ -3396,7 +3335,7 @@
         <v>15.39247254</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="47" t="s">
         <v>27</v>
       </c>
@@ -3407,7 +3346,7 @@
         <v>57</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>323</v>
+        <v>192</v>
       </c>
       <c r="E17" s="5">
         <v>0.5</v>
@@ -3428,7 +3367,7 @@
         <v>18.086897520000001</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="47" t="s">
         <v>28</v>
       </c>
@@ -3439,7 +3378,7 @@
         <v>57</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>324</v>
+        <v>192</v>
       </c>
       <c r="E18" s="5">
         <v>0.5</v>
@@ -3460,7 +3399,7 @@
         <v>16.589651889999999</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="49" t="s">
         <v>30</v>
       </c>
@@ -3471,7 +3410,7 @@
         <v>57</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="E19" s="5">
         <v>0.5</v>
@@ -3492,7 +3431,7 @@
         <v>19.082990850000002</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="49" t="s">
         <v>31</v>
       </c>
@@ -3503,7 +3442,7 @@
         <v>57</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>326</v>
+        <v>192</v>
       </c>
       <c r="E20" s="5">
         <v>0.5</v>
@@ -3524,7 +3463,7 @@
         <v>18.665004190000001</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="49" t="s">
         <v>29</v>
       </c>
@@ -3535,7 +3474,7 @@
         <v>57</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>336</v>
+        <v>192</v>
       </c>
       <c r="E21" s="5">
         <v>0.5</v>
@@ -3543,17 +3482,17 @@
       <c r="F21" s="5">
         <v>2600</v>
       </c>
-      <c r="G21" s="77">
+      <c r="G21" s="71">
         <v>86.427971209999995</v>
       </c>
       <c r="H21" s="37">
         <v>20.434585850000001</v>
       </c>
-      <c r="I21" s="78">
+      <c r="I21" s="72">
         <v>17.07499026</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="47" t="s">
         <v>32</v>
       </c>
@@ -3564,7 +3503,7 @@
         <v>57</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="E22" s="5">
         <v>0.5</v>
@@ -3585,7 +3524,7 @@
         <v>15.03255873</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="47" t="s">
         <v>36</v>
       </c>
@@ -3596,7 +3535,7 @@
         <v>57</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="E23" s="5">
         <v>0.5</v>
@@ -3617,7 +3556,7 @@
         <v>16.778296170000001</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="49" t="s">
         <v>33</v>
       </c>
@@ -3628,7 +3567,7 @@
         <v>57</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="E24" s="5">
         <v>0.5</v>
@@ -3649,7 +3588,7 @@
         <v>14.420945769999999</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="49" t="s">
         <v>37</v>
       </c>
@@ -3660,7 +3599,7 @@
         <v>57</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="E25" s="5">
         <v>0.5</v>
@@ -3690,30 +3629,30 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M123"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -3751,7 +3690,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>14</v>
       </c>
@@ -3789,7 +3728,7 @@
         <v>-7.6778263499915012</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>14</v>
       </c>
@@ -3827,7 +3766,7 @@
         <v>-7.7052220501109474</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>14</v>
       </c>
@@ -3865,7 +3804,7 @@
         <v>-7.7052220501109474</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="63" t="s">
         <v>14</v>
       </c>
@@ -3903,7 +3842,7 @@
         <v>-7.7052220501109474</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>15</v>
       </c>
@@ -3941,7 +3880,7 @@
         <v>-7.6778263499915012</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>15</v>
       </c>
@@ -3979,7 +3918,7 @@
         <v>-7.7052220501109474</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>15</v>
       </c>
@@ -4017,7 +3956,7 @@
         <v>-7.6778263499915012</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>15</v>
       </c>
@@ -4055,7 +3994,7 @@
         <v>-7.7052220501109474</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>15</v>
       </c>
@@ -4093,7 +4032,7 @@
         <v>-7.7052220501109474</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="63" t="s">
         <v>15</v>
       </c>
@@ -4131,7 +4070,7 @@
         <v>-7.6778263499915012</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="49" t="s">
         <v>16</v>
       </c>
@@ -4169,7 +4108,7 @@
         <v>-7.6778263499915012</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="49" t="s">
         <v>16</v>
       </c>
@@ -4207,7 +4146,7 @@
         <v>-7.6778263499915012</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="47" t="s">
         <v>16</v>
       </c>
@@ -4245,7 +4184,7 @@
         <v>-7.6778263499915012</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="47" t="s">
         <v>16</v>
       </c>
@@ -4283,7 +4222,7 @@
         <v>-7.6778263499915012</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="47" t="s">
         <v>16</v>
       </c>
@@ -4321,7 +4260,7 @@
         <v>-7.6778263499915012</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="63" t="s">
         <v>16</v>
       </c>
@@ -4359,7 +4298,7 @@
         <v>-7.6778263499915012</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="47" t="s">
         <v>34</v>
       </c>
@@ -4397,7 +4336,7 @@
         <v>-7.6778263499915012</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="47" t="s">
         <v>34</v>
       </c>
@@ -4435,7 +4374,7 @@
         <v>-7.6778263499915012</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="47" t="s">
         <v>34</v>
       </c>
@@ -4473,7 +4412,7 @@
         <v>-7.6778263499915012</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="63" t="s">
         <v>34</v>
       </c>
@@ -4511,7 +4450,7 @@
         <v>-7.6778263499915012</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="49" t="s">
         <v>17</v>
       </c>
@@ -4550,7 +4489,7 @@
       </c>
       <c r="M22" s="9"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="49" t="s">
         <v>17</v>
       </c>
@@ -4588,7 +4527,7 @@
         <v>-7.7052220501109474</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="49" t="s">
         <v>17</v>
       </c>
@@ -4626,7 +4565,7 @@
         <v>-7.7052220501109474</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="49" t="s">
         <v>17</v>
       </c>
@@ -4664,7 +4603,7 @@
         <v>-7.7052220501109474</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="49" t="s">
         <v>17</v>
       </c>
@@ -4702,7 +4641,7 @@
         <v>-7.7052220501109474</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="63" t="s">
         <v>17</v>
       </c>
@@ -4740,7 +4679,7 @@
         <v>-7.7052220501109474</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="47" t="s">
         <v>18</v>
       </c>
@@ -4778,7 +4717,7 @@
         <v>-7.7052220501109474</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="47" t="s">
         <v>18</v>
       </c>
@@ -4816,7 +4755,7 @@
         <v>-7.7052220501109474</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="47" t="s">
         <v>18</v>
       </c>
@@ -4854,7 +4793,7 @@
         <v>-7.7052220501109474</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="63" t="s">
         <v>18</v>
       </c>
@@ -4892,7 +4831,7 @@
         <v>-7.7052220501109474</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="47" t="s">
         <v>35</v>
       </c>
@@ -4930,7 +4869,7 @@
         <v>-7.7052220501109474</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="47" t="s">
         <v>35</v>
       </c>
@@ -4968,7 +4907,7 @@
         <v>-7.7052220501109474</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="47" t="s">
         <v>35</v>
       </c>
@@ -4982,7 +4921,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="63" t="s">
         <v>35</v>
       </c>
@@ -4996,7 +4935,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" s="49" t="s">
         <v>19</v>
       </c>
@@ -5010,7 +4949,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" s="49" t="s">
         <v>19</v>
       </c>
@@ -5024,7 +4963,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" s="49" t="s">
         <v>19</v>
       </c>
@@ -5038,7 +4977,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" s="49" t="s">
         <v>19</v>
       </c>
@@ -5052,7 +4991,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" s="49" t="s">
         <v>19</v>
       </c>
@@ -5066,7 +5005,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="63" t="s">
         <v>19</v>
       </c>
@@ -5080,7 +5019,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" s="49" t="s">
         <v>20</v>
       </c>
@@ -5094,7 +5033,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" s="49" t="s">
         <v>20</v>
       </c>
@@ -5108,7 +5047,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" s="49" t="s">
         <v>20</v>
       </c>
@@ -5122,7 +5061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" s="49" t="s">
         <v>20</v>
       </c>
@@ -5136,7 +5075,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" s="49" t="s">
         <v>20</v>
       </c>
@@ -5150,7 +5089,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="63" t="s">
         <v>20</v>
       </c>
@@ -5164,7 +5103,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" s="49" t="s">
         <v>21</v>
       </c>
@@ -5178,7 +5117,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="49" t="s">
         <v>21</v>
       </c>
@@ -5192,7 +5131,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="49" t="s">
         <v>21</v>
       </c>
@@ -5206,7 +5145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="49" t="s">
         <v>21</v>
       </c>
@@ -5220,7 +5159,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="49" t="s">
         <v>21</v>
       </c>
@@ -5234,7 +5173,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="63" t="s">
         <v>21</v>
       </c>
@@ -5248,7 +5187,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="47" t="s">
         <v>22</v>
       </c>
@@ -5262,7 +5201,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="47" t="s">
         <v>22</v>
       </c>
@@ -5276,7 +5215,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="47" t="s">
         <v>22</v>
       </c>
@@ -5290,7 +5229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="63" t="s">
         <v>22</v>
       </c>
@@ -5304,7 +5243,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="47" t="s">
         <v>23</v>
       </c>
@@ -5318,7 +5257,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="47" t="s">
         <v>23</v>
       </c>
@@ -5332,7 +5271,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="47" t="s">
         <v>23</v>
       </c>
@@ -5346,7 +5285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="63" t="s">
         <v>23</v>
       </c>
@@ -5360,7 +5299,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="47" t="s">
         <v>24</v>
       </c>
@@ -5374,7 +5313,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="47" t="s">
         <v>24</v>
       </c>
@@ -5388,7 +5327,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="47" t="s">
         <v>24</v>
       </c>
@@ -5402,7 +5341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="63" t="s">
         <v>24</v>
       </c>
@@ -5416,7 +5355,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="49" t="s">
         <v>25</v>
       </c>
@@ -5430,7 +5369,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="49" t="s">
         <v>25</v>
       </c>
@@ -5444,7 +5383,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="49" t="s">
         <v>25</v>
       </c>
@@ -5458,7 +5397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="49" t="s">
         <v>25</v>
       </c>
@@ -5472,7 +5411,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="49" t="s">
         <v>25</v>
       </c>
@@ -5486,7 +5425,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="63" t="s">
         <v>25</v>
       </c>
@@ -5500,7 +5439,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="49" t="s">
         <v>26</v>
       </c>
@@ -5514,7 +5453,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="49" t="s">
         <v>26</v>
       </c>
@@ -5528,7 +5467,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="49" t="s">
         <v>26</v>
       </c>
@@ -5542,7 +5481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="49" t="s">
         <v>26</v>
       </c>
@@ -5556,7 +5495,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="49" t="s">
         <v>26</v>
       </c>
@@ -5570,7 +5509,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="63" t="s">
         <v>26</v>
       </c>
@@ -5584,7 +5523,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="47" t="s">
         <v>27</v>
       </c>
@@ -5598,7 +5537,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="47" t="s">
         <v>27</v>
       </c>
@@ -5612,7 +5551,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="47" t="s">
         <v>27</v>
       </c>
@@ -5626,7 +5565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" s="63" t="s">
         <v>27</v>
       </c>
@@ -5640,7 +5579,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="47" t="s">
         <v>28</v>
       </c>
@@ -5654,7 +5593,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="47" t="s">
         <v>28</v>
       </c>
@@ -5668,7 +5607,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="47" t="s">
         <v>28</v>
       </c>
@@ -5682,7 +5621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" s="63" t="s">
         <v>28</v>
       </c>
@@ -5696,7 +5635,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" s="49" t="s">
         <v>30</v>
       </c>
@@ -5710,7 +5649,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" s="49" t="s">
         <v>30</v>
       </c>
@@ -5724,7 +5663,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" s="49" t="s">
         <v>30</v>
       </c>
@@ -5738,7 +5677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" s="49" t="s">
         <v>30</v>
       </c>
@@ -5752,7 +5691,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" s="49" t="s">
         <v>30</v>
       </c>
@@ -5766,7 +5705,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A91" s="63" t="s">
         <v>30</v>
       </c>
@@ -5780,7 +5719,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" s="49" t="s">
         <v>31</v>
       </c>
@@ -5794,7 +5733,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" s="49" t="s">
         <v>31</v>
       </c>
@@ -5808,7 +5747,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" s="49" t="s">
         <v>31</v>
       </c>
@@ -5822,7 +5761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" s="49" t="s">
         <v>31</v>
       </c>
@@ -5836,7 +5775,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" s="49" t="s">
         <v>31</v>
       </c>
@@ -5850,7 +5789,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A97" s="63" t="s">
         <v>31</v>
       </c>
@@ -5864,7 +5803,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" s="49" t="s">
         <v>29</v>
       </c>
@@ -5878,7 +5817,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" s="49" t="s">
         <v>29</v>
       </c>
@@ -5892,7 +5831,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" s="49" t="s">
         <v>29</v>
       </c>
@@ -5906,7 +5845,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" s="49" t="s">
         <v>29</v>
       </c>
@@ -5920,7 +5859,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" s="49" t="s">
         <v>29</v>
       </c>
@@ -5934,7 +5873,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A103" s="63" t="s">
         <v>29</v>
       </c>
@@ -5948,7 +5887,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" s="47" t="s">
         <v>32</v>
       </c>
@@ -5962,7 +5901,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" s="47" t="s">
         <v>32</v>
       </c>
@@ -5976,7 +5915,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" s="47" t="s">
         <v>32</v>
       </c>
@@ -5990,7 +5929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A107" s="63" t="s">
         <v>32</v>
       </c>
@@ -6004,7 +5943,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" s="47" t="s">
         <v>36</v>
       </c>
@@ -6018,7 +5957,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" s="47" t="s">
         <v>36</v>
       </c>
@@ -6032,7 +5971,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" s="47" t="s">
         <v>36</v>
       </c>
@@ -6046,7 +5985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A111" s="63" t="s">
         <v>36</v>
       </c>
@@ -6060,7 +5999,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" s="49" t="s">
         <v>33</v>
       </c>
@@ -6074,7 +6013,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" s="49" t="s">
         <v>33</v>
       </c>
@@ -6088,7 +6027,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" s="49" t="s">
         <v>33</v>
       </c>
@@ -6102,7 +6041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" s="49" t="s">
         <v>33</v>
       </c>
@@ -6116,7 +6055,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" s="49" t="s">
         <v>33</v>
       </c>
@@ -6130,7 +6069,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A117" s="63" t="s">
         <v>33</v>
       </c>
@@ -6144,7 +6083,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" s="49" t="s">
         <v>37</v>
       </c>
@@ -6158,7 +6097,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" s="49" t="s">
         <v>37</v>
       </c>
@@ -6172,7 +6111,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" s="49" t="s">
         <v>37</v>
       </c>
@@ -6186,7 +6125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" s="49" t="s">
         <v>37</v>
       </c>
@@ -6200,7 +6139,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" s="49" t="s">
         <v>37</v>
       </c>
@@ -6214,7 +6153,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A123" s="63" t="s">
         <v>37</v>
       </c>
@@ -6235,27 +6174,27 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H90"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="P18" sqref="P18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.42578125" style="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.42578125" style="19" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.7109375" style="19" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.140625" style="19" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="40.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.44140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.44140625" style="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.6640625" style="19" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.109375" style="19" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="40.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -6281,7 +6220,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>14</v>
       </c>
@@ -6310,7 +6249,7 @@
         <v>0.82694777312241607</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>14</v>
       </c>
@@ -6339,7 +6278,7 @@
         <v>0.67553311614555633</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>15</v>
       </c>
@@ -6368,7 +6307,7 @@
         <v>0.77310644316609189</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>15</v>
       </c>
@@ -6397,7 +6336,7 @@
         <v>0.65650490084889412</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>15</v>
       </c>
@@ -6426,7 +6365,7 @@
         <v>0.58745007021866047</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>15</v>
       </c>
@@ -6455,7 +6394,7 @@
         <v>0.60825395977892449</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="48" t="s">
         <v>15</v>
       </c>
@@ -6484,7 +6423,7 @@
         <v>0.61744538417679928</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="49" t="s">
         <v>16</v>
       </c>
@@ -6513,7 +6452,7 @@
         <v>0.76303888330689007</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="47" t="s">
         <v>16</v>
       </c>
@@ -6542,7 +6481,7 @@
         <v>0.66762953474689202</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="47" t="s">
         <v>16</v>
       </c>
@@ -6571,7 +6510,7 @@
         <v>0.50933560957660795</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="47" t="s">
         <v>16</v>
       </c>
@@ -6600,7 +6539,7 @@
         <v>0.56058360873389834</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="48" t="s">
         <v>16</v>
       </c>
@@ -6629,7 +6568,7 @@
         <v>0.63586633180345753</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="47" t="s">
         <v>34</v>
       </c>
@@ -6658,7 +6597,7 @@
         <v>0.7892519280085919</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="47" t="s">
         <v>34</v>
       </c>
@@ -6687,7 +6626,7 @@
         <v>0.67571794401978225</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="48" t="s">
         <v>34</v>
       </c>
@@ -6716,7 +6655,7 @@
         <v>0.37905665536280819</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="49" t="s">
         <v>17</v>
       </c>
@@ -6745,7 +6684,7 @@
         <v>0.7459365820340117</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="49" t="s">
         <v>17</v>
       </c>
@@ -6774,7 +6713,7 @@
         <v>0.63325778392684673</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="49" t="s">
         <v>17</v>
       </c>
@@ -6803,7 +6742,7 @@
         <v>0.4093640646031364</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="49" t="s">
         <v>17</v>
       </c>
@@ -6832,7 +6771,7 @@
         <v>0.47453166289973175</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="48" t="s">
         <v>17</v>
       </c>
@@ -6861,7 +6800,7 @@
         <v>0.51458720945418757</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="47" t="s">
         <v>18</v>
       </c>
@@ -6890,7 +6829,7 @@
         <v>0.83563163855658773</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="47" t="s">
         <v>18</v>
       </c>
@@ -6919,7 +6858,7 @@
         <v>0.66963550452576126</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="47" t="s">
         <v>35</v>
       </c>
@@ -6948,7 +6887,7 @@
         <v>0.80832623607705878</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="47" t="s">
         <v>35</v>
       </c>
@@ -6977,7 +6916,7 @@
         <v>0.64511446690394958</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="49" t="s">
         <v>19</v>
       </c>
@@ -7006,7 +6945,7 @@
         <v>0.73214119669836553</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="49" t="s">
         <v>19</v>
       </c>
@@ -7035,7 +6974,7 @@
         <v>0.59276420699370658</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="49" t="s">
         <v>19</v>
       </c>
@@ -7064,7 +7003,7 @@
         <v>0.63157506172308264</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="49" t="s">
         <v>19</v>
       </c>
@@ -7093,7 +7032,7 @@
         <v>0.63734531764863933</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="48" t="s">
         <v>19</v>
       </c>
@@ -7122,7 +7061,7 @@
         <v>0.68309482854487047</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="49" t="s">
         <v>20</v>
       </c>
@@ -7151,7 +7090,7 @@
         <v>0.77448301571735378</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="49" t="s">
         <v>20</v>
       </c>
@@ -7180,7 +7119,7 @@
         <v>0.64103699938063985</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="49" t="s">
         <v>20</v>
       </c>
@@ -7209,7 +7148,7 @@
         <v>0.31809543344030961</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="49" t="s">
         <v>20</v>
       </c>
@@ -7238,7 +7177,7 @@
         <v>0.43360127334148268</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="48" t="s">
         <v>20</v>
       </c>
@@ -7267,7 +7206,7 @@
         <v>0.51609905944738466</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="49" t="s">
         <v>21</v>
       </c>
@@ -7296,7 +7235,7 @@
         <v>0.82872018239213652</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="49" t="s">
         <v>21</v>
       </c>
@@ -7325,7 +7264,7 @@
         <v>0.63216626417722122</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="49" t="s">
         <v>21</v>
       </c>
@@ -7354,7 +7293,7 @@
         <v>0.45380785913293648</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="49" t="s">
         <v>21</v>
       </c>
@@ -7383,7 +7322,7 @@
         <v>0.54135239785179401</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="48" t="s">
         <v>21</v>
       </c>
@@ -7412,7 +7351,7 @@
         <v>0.63216494195860418</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="47" t="s">
         <v>22</v>
       </c>
@@ -7441,7 +7380,7 @@
         <v>0.78170094312348071</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="47" t="s">
         <v>22</v>
       </c>
@@ -7470,7 +7409,7 @@
         <v>0.62281925061560872</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="47" t="s">
         <v>23</v>
       </c>
@@ -7499,7 +7438,7 @@
         <v>0.74549611987127273</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="47" t="s">
         <v>23</v>
       </c>
@@ -7528,7 +7467,7 @@
         <v>0.60755756217933743</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="47" t="s">
         <v>24</v>
       </c>
@@ -7557,7 +7496,7 @@
         <v>0.84922990123861475</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="47" t="s">
         <v>24</v>
       </c>
@@ -7586,7 +7525,7 @@
         <v>0.62646057658598409</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="49" t="s">
         <v>25</v>
       </c>
@@ -7615,7 +7554,7 @@
         <v>0.77793813402627299</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="49" t="s">
         <v>25</v>
       </c>
@@ -7644,7 +7583,7 @@
         <v>0.5674651835945157</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="49" t="s">
         <v>25</v>
       </c>
@@ -7673,7 +7612,7 @@
         <v>0.25100142183861829</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="49" t="s">
         <v>25</v>
       </c>
@@ -7702,7 +7641,7 @@
         <v>0.40785375730176121</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="48" t="s">
         <v>25</v>
       </c>
@@ -7731,7 +7670,7 @@
         <v>0.34037035185725212</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="49" t="s">
         <v>26</v>
       </c>
@@ -7760,7 +7699,7 @@
         <v>0.77348996456037233</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="49" t="s">
         <v>26</v>
       </c>
@@ -7789,7 +7728,7 @@
         <v>0.57132732089085669</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="49" t="s">
         <v>26</v>
       </c>
@@ -7818,7 +7757,7 @@
         <v>0.51339922225614665</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="49" t="s">
         <v>26</v>
       </c>
@@ -7847,7 +7786,7 @@
         <v>0.53932051934485126</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="48" t="s">
         <v>26</v>
       </c>
@@ -7876,7 +7815,7 @@
         <v>0.52828622807814973</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="47" t="s">
         <v>27</v>
       </c>
@@ -7905,7 +7844,7 @@
         <v>0.81217680252474633</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="47" t="s">
         <v>27</v>
       </c>
@@ -7934,7 +7873,7 @@
         <v>0.59260290439948715</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="47" t="s">
         <v>28</v>
       </c>
@@ -7963,7 +7902,7 @@
         <v>0.78705634786462109</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="47" t="s">
         <v>28</v>
       </c>
@@ -7992,7 +7931,7 @@
         <v>0.56944898088479412</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="48" t="s">
         <v>28</v>
       </c>
@@ -8021,7 +7960,7 @@
         <v>9.0251287491151522E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="49" t="s">
         <v>30</v>
       </c>
@@ -8050,7 +7989,7 @@
         <v>0.76890071308703922</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="49" t="s">
         <v>30</v>
       </c>
@@ -8079,7 +8018,7 @@
         <v>0.5840264856351145</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="49" t="s">
         <v>30</v>
       </c>
@@ -8108,7 +8047,7 @@
         <v>0.55366488404482617</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="49" t="s">
         <v>30</v>
       </c>
@@ -8137,7 +8076,7 @@
         <v>0.6120550237875616</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="48" t="s">
         <v>30</v>
       </c>
@@ -8166,7 +8105,7 @@
         <v>0.67283592168236694</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="49" t="s">
         <v>31</v>
       </c>
@@ -8195,7 +8134,7 @@
         <v>0.81712445748912921</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="49" t="s">
         <v>31</v>
       </c>
@@ -8224,7 +8163,7 @@
         <v>0.5865603258552079</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="49" t="s">
         <v>31</v>
       </c>
@@ -8253,7 +8192,7 @@
         <v>0.67298599434845008</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="49" t="s">
         <v>31</v>
       </c>
@@ -8282,7 +8221,7 @@
         <v>0.69340536057093483</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="48" t="s">
         <v>31</v>
       </c>
@@ -8311,7 +8250,7 @@
         <v>0.65232554369741647</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="49" t="s">
         <v>29</v>
       </c>
@@ -8340,7 +8279,7 @@
         <v>0.77785539661040026</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="49" t="s">
         <v>29</v>
       </c>
@@ -8369,7 +8308,7 @@
         <v>0.57482596908681804</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="49" t="s">
         <v>29</v>
       </c>
@@ -8398,7 +8337,7 @@
         <v>0.41526135540617554</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="49" t="s">
         <v>29</v>
       </c>
@@ -8427,7 +8366,7 @@
         <v>0.52463329192255426</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="48" t="s">
         <v>29</v>
       </c>
@@ -8456,7 +8395,7 @@
         <v>0.58314648997596041</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="47" t="s">
         <v>32</v>
       </c>
@@ -8485,7 +8424,7 @@
         <v>0.79434473710410436</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="47" t="s">
         <v>32</v>
       </c>
@@ -8514,7 +8453,7 @@
         <v>0.58667844106721301</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="47" t="s">
         <v>36</v>
       </c>
@@ -8543,7 +8482,7 @@
         <v>0.8349567243913002</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="47" t="s">
         <v>36</v>
       </c>
@@ -8572,7 +8511,7 @@
         <v>0.60071987271051341</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="49" t="s">
         <v>33</v>
       </c>
@@ -8601,7 +8540,7 @@
         <v>0.85650078180136813</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="49" t="s">
         <v>33</v>
       </c>
@@ -8630,7 +8569,7 @@
         <v>0.59819369979502113</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="49" t="s">
         <v>33</v>
       </c>
@@ -8659,7 +8598,7 @@
         <v>0.61187518060454116</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="49" t="s">
         <v>33</v>
       </c>
@@ -8688,7 +8627,7 @@
         <v>0.63844079003175391</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" s="48" t="s">
         <v>33</v>
       </c>
@@ -8717,7 +8656,7 @@
         <v>0.63778630506753187</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="49" t="s">
         <v>37</v>
       </c>
@@ -8746,7 +8685,7 @@
         <v>0.87888816572160944</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="49" t="s">
         <v>37</v>
       </c>
@@ -8775,7 +8714,7 @@
         <v>0.62923936034112482</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="49" t="s">
         <v>37</v>
       </c>
@@ -8804,7 +8743,7 @@
         <v>0.56961057779474922</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="49" t="s">
         <v>37</v>
       </c>
@@ -8833,7 +8772,7 @@
         <v>0.64612103278007593</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="48" t="s">
         <v>37</v>
       </c>
@@ -8863,7 +8802,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="D1:D90"/>
+  <autoFilter ref="D1:D90" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -8871,20 +8810,20 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>58</v>
       </c>
@@ -8892,7 +8831,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>59</v>
       </c>
@@ -8900,7 +8839,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>60</v>
       </c>
@@ -8908,7 +8847,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>61</v>
       </c>
@@ -8916,7 +8855,7 @@
         <v>0.1259168645351276</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>62</v>
       </c>
@@ -8924,7 +8863,7 @@
         <v>2.2679</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>63</v>
       </c>
@@ -8932,7 +8871,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>64</v>
       </c>
@@ -8940,7 +8879,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>65</v>
       </c>
@@ -8948,7 +8887,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>66</v>
       </c>
@@ -8956,7 +8895,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>67</v>
       </c>
@@ -8964,7 +8903,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>68</v>
       </c>
@@ -8972,7 +8911,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>69</v>
       </c>
@@ -8980,7 +8919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>70</v>
       </c>
@@ -8988,7 +8927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>71</v>
       </c>
@@ -8996,7 +8935,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>72</v>
       </c>
@@ -9004,7 +8943,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>73</v>
       </c>
@@ -9012,7 +8951,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>74</v>
       </c>
@@ -9020,7 +8959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>75</v>
       </c>
@@ -9028,7 +8967,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>76</v>
       </c>
@@ -9036,7 +8975,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>77</v>
       </c>
@@ -9044,7 +8983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>78</v>
       </c>
@@ -9052,7 +8991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>79</v>
       </c>
@@ -9060,7 +8999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>80</v>
       </c>
@@ -9068,7 +9007,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>81</v>
       </c>
@@ -9076,7 +9015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>82</v>
       </c>
@@ -9084,7 +9023,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>83</v>
       </c>
@@ -9092,7 +9031,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>84</v>
       </c>
@@ -9100,7 +9039,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>85</v>
       </c>
@@ -9108,7 +9047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>86</v>
       </c>
@@ -9116,7 +9055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>87</v>
       </c>
@@ -9124,7 +9063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>88</v>
       </c>
@@ -9132,7 +9071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>89</v>
       </c>
@@ -9140,7 +9079,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>90</v>
       </c>
@@ -9148,7 +9087,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>91</v>
       </c>
@@ -9156,7 +9095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>92</v>
       </c>
@@ -9164,7 +9103,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>93</v>
       </c>
@@ -9172,7 +9111,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>94</v>
       </c>
@@ -9180,7 +9119,7 @@
         <v>4.2920969347823963</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>95</v>
       </c>
@@ -9188,7 +9127,7 @@
         <v>4.2920969347823963</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>96</v>
       </c>
@@ -9196,7 +9135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>97</v>
       </c>
@@ -9204,7 +9143,7 @@
         <v>0.38277020142713869</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>98</v>
       </c>
@@ -9212,7 +9151,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>99</v>
       </c>
@@ -9220,7 +9159,7 @@
         <v>0.39457142857142857</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>100</v>
       </c>
@@ -9228,7 +9167,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>101</v>
       </c>
@@ -9236,7 +9175,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>102</v>
       </c>
@@ -9244,7 +9183,7 @@
         <v>4.8565574202227367E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>103</v>
       </c>
@@ -9252,7 +9191,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>104</v>
       </c>
@@ -9260,7 +9199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>105</v>
       </c>
@@ -9268,7 +9207,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>106</v>
       </c>
@@ -9276,7 +9215,7 @@
         <v>3.33</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>107</v>
       </c>
@@ -9284,7 +9223,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>108</v>
       </c>
@@ -9292,7 +9231,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>109</v>
       </c>
@@ -9300,7 +9239,7 @@
         <v>0.66</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>110</v>
       </c>
@@ -9308,7 +9247,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>111</v>
       </c>
@@ -9316,7 +9255,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>112</v>
       </c>
@@ -9324,7 +9263,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>113</v>
       </c>
@@ -9332,7 +9271,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>114</v>
       </c>
@@ -9340,7 +9279,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>115</v>
       </c>
@@ -9348,7 +9287,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>116</v>
       </c>
@@ -9356,7 +9295,7 @@
         <v>0.39500000000000002</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>117</v>
       </c>
@@ -9364,7 +9303,7 @@
         <v>0.39500000000000002</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>118</v>
       </c>
@@ -9372,7 +9311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>119</v>
       </c>
@@ -9380,7 +9319,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>120</v>
       </c>
@@ -9388,7 +9327,7 @@
         <v>4.588685316132576</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>121</v>
       </c>
@@ -9396,7 +9335,7 @@
         <v>0.4738211</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>122</v>
       </c>
@@ -9404,7 +9343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>123</v>
       </c>
@@ -9412,7 +9351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>124</v>
       </c>
@@ -9420,7 +9359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>125</v>
       </c>
@@ -9428,7 +9367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>126</v>
       </c>
@@ -9436,7 +9375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>127</v>
       </c>
@@ -9444,7 +9383,7 @@
         <v>1.3764906078875401</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>128</v>
       </c>
@@ -9452,7 +9391,7 @@
         <v>0.55362769999999994</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>129</v>
       </c>
@@ -9460,7 +9399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>130</v>
       </c>
@@ -9468,7 +9407,7 @@
         <v>-0.27724310000000002</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>131</v>
       </c>
@@ -9476,7 +9415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>132</v>
       </c>
@@ -9484,7 +9423,7 @@
         <v>2.1885791577597868</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>133</v>
       </c>
@@ -9492,7 +9431,7 @@
         <v>0.56325259999999999</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>134</v>
       </c>
@@ -9500,7 +9439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>135</v>
       </c>
@@ -9508,7 +9447,7 @@
         <v>-0.26567479999999999</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>136</v>
       </c>
@@ -9516,7 +9455,7 @@
         <v>0.67789920000000004</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>137</v>
       </c>
@@ -9524,7 +9463,7 @@
         <v>-90</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>138</v>
       </c>
@@ -9532,7 +9471,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>139</v>
       </c>
@@ -9540,7 +9479,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>140</v>
       </c>
@@ -9554,20 +9493,20 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>58</v>
       </c>
@@ -9575,7 +9514,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>141</v>
       </c>
@@ -9583,7 +9522,7 @@
         <v>0.27800157495549827</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>142</v>
       </c>
@@ -9591,7 +9530,7 @@
         <v>1.1518027</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>143</v>
       </c>
@@ -9599,7 +9538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>144</v>
       </c>
@@ -9607,7 +9546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>145</v>
       </c>
@@ -9615,7 +9554,7 @@
         <v>5.4277699999999998E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>146</v>
       </c>
@@ -9623,7 +9562,7 @@
         <v>1.2283156000459392</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>147</v>
       </c>
@@ -9631,7 +9570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>148</v>
       </c>
@@ -9639,7 +9578,7 @@
         <v>1.1889634</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>149</v>
       </c>
@@ -9647,7 +9586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>150</v>
       </c>
@@ -9655,7 +9594,7 @@
         <v>0.2143678</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>151</v>
       </c>
@@ -9663,7 +9602,7 @@
         <v>0.98723714491917658</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>152</v>
       </c>
@@ -9671,7 +9610,7 @@
         <v>0.87204890000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>153</v>
       </c>
@@ -9679,7 +9618,7 @@
         <v>2.25852E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>154</v>
       </c>
@@ -9687,7 +9626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>155</v>
       </c>
@@ -9695,7 +9634,7 @@
         <v>-0.10617219999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>156</v>
       </c>
@@ -9703,7 +9642,7 @@
         <v>9.0008110144060058E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>157</v>
       </c>
@@ -9711,7 +9650,7 @@
         <v>2.0841154999999998</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>158</v>
       </c>
@@ -9719,7 +9658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>159</v>
       </c>
@@ -9727,7 +9666,7 @@
         <v>0.27149630000000002</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>160</v>
       </c>
@@ -9735,7 +9674,7 @@
         <v>-0.1222255</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>161</v>
       </c>
@@ -9743,7 +9682,7 @@
         <v>1.1339352444324555</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>162</v>
       </c>
@@ -9751,7 +9690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>163</v>
       </c>
@@ -9759,7 +9698,7 @@
         <v>0.94494829999999996</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>164</v>
       </c>
@@ -9767,7 +9706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>165</v>
       </c>
@@ -9775,7 +9714,7 @@
         <v>0.12202789999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>166</v>
       </c>
@@ -9783,7 +9722,7 @@
         <v>0.22778889000228159</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>167</v>
       </c>
@@ -9791,7 +9730,7 @@
         <v>2.203662</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>168</v>
       </c>
@@ -9799,7 +9738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>169</v>
       </c>
@@ -9807,7 +9746,7 @@
         <v>-0.41872100000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>170</v>
       </c>
@@ -9821,27 +9760,27 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:I123"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.42578125" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.5703125" style="16" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.44140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.5546875" style="16" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5" style="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.7109375" style="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="37.42578125" style="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" style="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.5703125" style="16" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.85546875" style="16"/>
+    <col min="4" max="4" width="27.6640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="37.44140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.88671875" style="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.5546875" style="16" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>195</v>
       </c>
@@ -9870,7 +9809,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
         <v>14</v>
       </c>
@@ -9899,7 +9838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="16" t="s">
         <v>14</v>
       </c>
@@ -9928,7 +9867,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
         <v>14</v>
       </c>
@@ -9957,7 +9896,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="26" t="s">
         <v>14</v>
       </c>
@@ -9973,7 +9912,7 @@
       <c r="E5" s="24">
         <v>0</v>
       </c>
-      <c r="F5" s="71">
+      <c r="F5" s="69">
         <v>18.540002983135334</v>
       </c>
       <c r="G5" s="29">
@@ -9986,7 +9925,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="27" t="s">
         <v>15</v>
       </c>
@@ -10002,7 +9941,7 @@
       <c r="E6" s="25">
         <v>11.3</v>
       </c>
-      <c r="F6" s="72">
+      <c r="F6" s="70">
         <v>0</v>
       </c>
       <c r="G6" s="29">
@@ -10015,7 +9954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="16" t="s">
         <v>15</v>
       </c>
@@ -10044,7 +9983,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="16" t="s">
         <v>15</v>
       </c>
@@ -10073,7 +10012,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="16" t="s">
         <v>15</v>
       </c>
@@ -10102,7 +10041,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="16" t="s">
         <v>15</v>
       </c>
@@ -10131,7 +10070,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="26" t="s">
         <v>15</v>
       </c>
@@ -10147,7 +10086,7 @@
       <c r="E11" s="24">
         <v>25.4</v>
       </c>
-      <c r="F11" s="71">
+      <c r="F11" s="69">
         <v>19.544100476116796</v>
       </c>
       <c r="G11" s="29">
@@ -10160,7 +10099,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="27" t="s">
         <v>16</v>
       </c>
@@ -10176,7 +10115,7 @@
       <c r="E12" s="25">
         <v>10</v>
       </c>
-      <c r="F12" s="72">
+      <c r="F12" s="70">
         <v>0</v>
       </c>
       <c r="G12" s="29">
@@ -10189,7 +10128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="16" t="s">
         <v>16</v>
       </c>
@@ -10218,7 +10157,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="16" t="s">
         <v>16</v>
       </c>
@@ -10247,7 +10186,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="16" t="s">
         <v>16</v>
       </c>
@@ -10276,7 +10215,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="16" t="s">
         <v>16</v>
       </c>
@@ -10305,7 +10244,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="26" t="s">
         <v>16</v>
       </c>
@@ -10321,7 +10260,7 @@
       <c r="E17" s="24">
         <v>26</v>
       </c>
-      <c r="F17" s="71">
+      <c r="F17" s="69">
         <v>17.841241161527709</v>
       </c>
       <c r="G17" s="29">
@@ -10334,7 +10273,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="27" t="s">
         <v>34</v>
       </c>
@@ -10350,7 +10289,7 @@
       <c r="E18" s="25">
         <v>10.3</v>
       </c>
-      <c r="F18" s="72">
+      <c r="F18" s="70">
         <v>0</v>
       </c>
       <c r="G18" s="29">
@@ -10363,7 +10302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="16" t="s">
         <v>34</v>
       </c>
@@ -10392,7 +10331,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="16" t="s">
         <v>34</v>
       </c>
@@ -10421,7 +10360,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="26" t="s">
         <v>34</v>
       </c>
@@ -10437,7 +10376,7 @@
       <c r="E21" s="24">
         <v>21.4</v>
       </c>
-      <c r="F21" s="71">
+      <c r="F21" s="69">
         <v>16.429739460882601</v>
       </c>
       <c r="G21" s="29">
@@ -10450,7 +10389,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="27" t="s">
         <v>17</v>
       </c>
@@ -10466,7 +10405,7 @@
       <c r="E22" s="25">
         <v>10.4</v>
       </c>
-      <c r="F22" s="72">
+      <c r="F22" s="70">
         <v>0</v>
       </c>
       <c r="G22" s="29">
@@ -10479,7 +10418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="16" t="s">
         <v>17</v>
       </c>
@@ -10508,7 +10447,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="16" t="s">
         <v>17</v>
       </c>
@@ -10537,7 +10476,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="16" t="s">
         <v>17</v>
       </c>
@@ -10566,7 +10505,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="16" t="s">
         <v>17</v>
       </c>
@@ -10595,7 +10534,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="26" t="s">
         <v>17</v>
       </c>
@@ -10611,7 +10550,7 @@
       <c r="E27" s="24">
         <v>23.8</v>
       </c>
-      <c r="F27" s="71">
+      <c r="F27" s="69">
         <v>20.351568930328106</v>
       </c>
       <c r="G27" s="29">
@@ -10624,7 +10563,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="27" t="s">
         <v>18</v>
       </c>
@@ -10640,7 +10579,7 @@
       <c r="E28" s="25">
         <v>12</v>
       </c>
-      <c r="F28" s="72">
+      <c r="F28" s="70">
         <v>0</v>
       </c>
       <c r="G28" s="29">
@@ -10653,7 +10592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="16" t="s">
         <v>18</v>
       </c>
@@ -10682,7 +10621,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="16" t="s">
         <v>18</v>
       </c>
@@ -10711,7 +10650,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="26" t="s">
         <v>18</v>
       </c>
@@ -10727,7 +10666,7 @@
       <c r="E31" s="24">
         <v>0</v>
       </c>
-      <c r="F31" s="71">
+      <c r="F31" s="69">
         <v>23.330450175131258</v>
       </c>
       <c r="G31" s="29">
@@ -10740,7 +10679,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="27" t="s">
         <v>35</v>
       </c>
@@ -10756,7 +10695,7 @@
       <c r="E32" s="25">
         <v>12.3</v>
       </c>
-      <c r="F32" s="72">
+      <c r="F32" s="70">
         <v>0</v>
       </c>
       <c r="G32" s="29">
@@ -10769,7 +10708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="16" t="s">
         <v>35</v>
       </c>
@@ -10798,7 +10737,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="16" t="s">
         <v>35</v>
       </c>
@@ -10827,7 +10766,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="26" t="s">
         <v>35</v>
       </c>
@@ -10843,7 +10782,7 @@
       <c r="E35" s="24">
         <v>0</v>
       </c>
-      <c r="F35" s="71">
+      <c r="F35" s="69">
         <v>20.115447080554322</v>
       </c>
       <c r="G35" s="29">
@@ -10856,7 +10795,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="27" t="s">
         <v>19</v>
       </c>
@@ -10872,7 +10811,7 @@
       <c r="E36" s="25">
         <v>10.3</v>
       </c>
-      <c r="F36" s="72">
+      <c r="F36" s="70">
         <v>0</v>
       </c>
       <c r="G36" s="29">
@@ -10885,7 +10824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="16" t="s">
         <v>19</v>
       </c>
@@ -10914,7 +10853,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="16" t="s">
         <v>19</v>
       </c>
@@ -10943,7 +10882,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="16" t="s">
         <v>19</v>
       </c>
@@ -10972,7 +10911,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="16" t="s">
         <v>19</v>
       </c>
@@ -11001,7 +10940,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="16" t="s">
         <v>19</v>
       </c>
@@ -11030,7 +10969,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="27" t="s">
         <v>20</v>
       </c>
@@ -11046,7 +10985,7 @@
       <c r="E42" s="25">
         <v>12.2</v>
       </c>
-      <c r="F42" s="72">
+      <c r="F42" s="70">
         <v>0</v>
       </c>
       <c r="G42" s="29">
@@ -11059,7 +10998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="16" t="s">
         <v>20</v>
       </c>
@@ -11088,7 +11027,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="16" t="s">
         <v>20</v>
       </c>
@@ -11117,7 +11056,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="16" t="s">
         <v>20</v>
       </c>
@@ -11146,7 +11085,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="16" t="s">
         <v>20</v>
       </c>
@@ -11175,7 +11114,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="26" t="s">
         <v>20</v>
       </c>
@@ -11191,7 +11130,7 @@
       <c r="E47" s="24">
         <v>32.9</v>
       </c>
-      <c r="F47" s="71">
+      <c r="F47" s="69">
         <v>28.464773785323661</v>
       </c>
       <c r="G47" s="29">
@@ -11204,7 +11143,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="16" t="s">
         <v>21</v>
       </c>
@@ -11233,7 +11172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="16" t="s">
         <v>21</v>
       </c>
@@ -11262,7 +11201,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="16" t="s">
         <v>21</v>
       </c>
@@ -11291,7 +11230,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="16" t="s">
         <v>21</v>
       </c>
@@ -11320,7 +11259,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="16" t="s">
         <v>21</v>
       </c>
@@ -11349,7 +11288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="16" t="s">
         <v>21</v>
       </c>
@@ -11378,7 +11317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" s="27" t="s">
         <v>22</v>
       </c>
@@ -11394,7 +11333,7 @@
       <c r="E54" s="25">
         <v>12.9</v>
       </c>
-      <c r="F54" s="72">
+      <c r="F54" s="70">
         <v>0</v>
       </c>
       <c r="G54" s="29">
@@ -11407,7 +11346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" s="16" t="s">
         <v>22</v>
       </c>
@@ -11436,7 +11375,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" s="16" t="s">
         <v>22</v>
       </c>
@@ -11465,7 +11404,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="26" t="s">
         <v>22</v>
       </c>
@@ -11481,7 +11420,7 @@
       <c r="E57" s="24">
         <v>0</v>
       </c>
-      <c r="F57" s="71">
+      <c r="F57" s="69">
         <v>19.708466353711557</v>
       </c>
       <c r="G57" s="29">
@@ -11494,7 +11433,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" s="27" t="s">
         <v>23</v>
       </c>
@@ -11510,7 +11449,7 @@
       <c r="E58" s="25">
         <v>12.3</v>
       </c>
-      <c r="F58" s="72">
+      <c r="F58" s="70">
         <v>0</v>
       </c>
       <c r="G58" s="29">
@@ -11523,7 +11462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" s="16" t="s">
         <v>23</v>
       </c>
@@ -11552,7 +11491,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" s="16" t="s">
         <v>23</v>
       </c>
@@ -11581,7 +11520,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="26" t="s">
         <v>23</v>
       </c>
@@ -11597,7 +11536,7 @@
       <c r="E61" s="24">
         <v>0</v>
       </c>
-      <c r="F61" s="71">
+      <c r="F61" s="69">
         <v>20.096884334946893</v>
       </c>
       <c r="G61" s="29">
@@ -11610,7 +11549,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" s="27" t="s">
         <v>24</v>
       </c>
@@ -11626,7 +11565,7 @@
       <c r="E62" s="25">
         <v>12.8</v>
       </c>
-      <c r="F62" s="72">
+      <c r="F62" s="70">
         <v>0</v>
       </c>
       <c r="G62" s="29">
@@ -11639,7 +11578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" s="16" t="s">
         <v>24</v>
       </c>
@@ -11668,7 +11607,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" s="16" t="s">
         <v>24</v>
       </c>
@@ -11697,7 +11636,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="26" t="s">
         <v>24</v>
       </c>
@@ -11713,7 +11652,7 @@
       <c r="E65" s="24">
         <v>0</v>
       </c>
-      <c r="F65" s="71">
+      <c r="F65" s="69">
         <v>21.699118484344691</v>
       </c>
       <c r="G65" s="29">
@@ -11726,7 +11665,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" s="27" t="s">
         <v>25</v>
       </c>
@@ -11742,7 +11681,7 @@
       <c r="E66" s="25">
         <v>11.9</v>
       </c>
-      <c r="F66" s="72">
+      <c r="F66" s="70">
         <v>0</v>
       </c>
       <c r="G66" s="29">
@@ -11755,7 +11694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" s="16" t="s">
         <v>25</v>
       </c>
@@ -11784,7 +11723,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" s="16" t="s">
         <v>25</v>
       </c>
@@ -11813,7 +11752,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" s="16" t="s">
         <v>25</v>
       </c>
@@ -11842,7 +11781,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" s="16" t="s">
         <v>25</v>
       </c>
@@ -11871,7 +11810,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="26" t="s">
         <v>25</v>
       </c>
@@ -11887,7 +11826,7 @@
       <c r="E71" s="24">
         <v>25.4</v>
       </c>
-      <c r="F71" s="71">
+      <c r="F71" s="69">
         <v>20.60129077457011</v>
       </c>
       <c r="G71" s="29">
@@ -11900,7 +11839,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" s="27" t="s">
         <v>26</v>
       </c>
@@ -11916,7 +11855,7 @@
       <c r="E72" s="25">
         <v>10.4</v>
       </c>
-      <c r="F72" s="72">
+      <c r="F72" s="70">
         <v>0</v>
       </c>
       <c r="G72" s="29">
@@ -11929,7 +11868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" s="16" t="s">
         <v>26</v>
       </c>
@@ -11958,7 +11897,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" s="16" t="s">
         <v>26</v>
       </c>
@@ -11987,7 +11926,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" s="16" t="s">
         <v>26</v>
       </c>
@@ -12016,7 +11955,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" s="16" t="s">
         <v>26</v>
       </c>
@@ -12045,7 +11984,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="26" t="s">
         <v>26</v>
       </c>
@@ -12061,7 +12000,7 @@
       <c r="E77" s="24">
         <v>24</v>
       </c>
-      <c r="F77" s="71">
+      <c r="F77" s="69">
         <v>18.733847816119166</v>
       </c>
       <c r="G77" s="29">
@@ -12074,7 +12013,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" s="27" t="s">
         <v>27</v>
       </c>
@@ -12090,7 +12029,7 @@
       <c r="E78" s="25">
         <v>13.4</v>
       </c>
-      <c r="F78" s="72">
+      <c r="F78" s="70">
         <v>0</v>
       </c>
       <c r="G78" s="29">
@@ -12103,7 +12042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" s="16" t="s">
         <v>27</v>
       </c>
@@ -12132,7 +12071,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" s="16" t="s">
         <v>27</v>
       </c>
@@ -12161,7 +12100,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="81" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" s="26" t="s">
         <v>27</v>
       </c>
@@ -12177,7 +12116,7 @@
       <c r="E81" s="24">
         <v>0</v>
       </c>
-      <c r="F81" s="71">
+      <c r="F81" s="69">
         <v>21.339921413331751</v>
       </c>
       <c r="G81" s="29">
@@ -12190,7 +12129,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" s="27" t="s">
         <v>28</v>
       </c>
@@ -12206,7 +12145,7 @@
       <c r="E82" s="25">
         <v>13</v>
       </c>
-      <c r="F82" s="72">
+      <c r="F82" s="70">
         <v>0</v>
       </c>
       <c r="G82" s="29">
@@ -12219,7 +12158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" s="16" t="s">
         <v>28</v>
       </c>
@@ -12248,7 +12187,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" s="16" t="s">
         <v>28</v>
       </c>
@@ -12277,7 +12216,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="85" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" s="26" t="s">
         <v>28</v>
       </c>
@@ -12293,7 +12232,7 @@
       <c r="E85" s="24">
         <v>28</v>
       </c>
-      <c r="F85" s="71">
+      <c r="F85" s="69">
         <v>24.678592252496621</v>
       </c>
       <c r="G85" s="29">
@@ -12306,7 +12245,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" s="27" t="s">
         <v>30</v>
       </c>
@@ -12322,7 +12261,7 @@
       <c r="E86" s="25">
         <v>12.5</v>
       </c>
-      <c r="F86" s="72">
+      <c r="F86" s="70">
         <v>0</v>
       </c>
       <c r="G86" s="29">
@@ -12335,7 +12274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" s="16" t="s">
         <v>30</v>
       </c>
@@ -12364,7 +12303,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" s="16" t="s">
         <v>30</v>
       </c>
@@ -12393,7 +12332,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" s="16" t="s">
         <v>30</v>
       </c>
@@ -12422,7 +12361,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" s="16" t="s">
         <v>30</v>
       </c>
@@ -12451,7 +12390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A91" s="26" t="s">
         <v>30</v>
       </c>
@@ -12467,7 +12406,7 @@
       <c r="E91" s="24">
         <v>26.3</v>
       </c>
-      <c r="F91" s="71">
+      <c r="F91" s="69">
         <v>18.634568644434335</v>
       </c>
       <c r="G91" s="29">
@@ -12480,7 +12419,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" s="27" t="s">
         <v>31</v>
       </c>
@@ -12496,7 +12435,7 @@
       <c r="E92" s="25">
         <v>12.5</v>
       </c>
-      <c r="F92" s="72">
+      <c r="F92" s="70">
         <v>0</v>
       </c>
       <c r="G92" s="29">
@@ -12509,7 +12448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" s="16" t="s">
         <v>31</v>
       </c>
@@ -12538,7 +12477,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94" s="16" t="s">
         <v>31</v>
       </c>
@@ -12567,7 +12506,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95" s="16" t="s">
         <v>31</v>
       </c>
@@ -12596,7 +12535,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96" s="16" t="s">
         <v>31</v>
       </c>
@@ -12625,7 +12564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A97" s="26" t="s">
         <v>31</v>
       </c>
@@ -12641,7 +12580,7 @@
       <c r="E97" s="24">
         <v>27.7</v>
       </c>
-      <c r="F97" s="71">
+      <c r="F97" s="69">
         <v>26.702324712498182</v>
       </c>
       <c r="G97" s="29">
@@ -12654,7 +12593,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98" s="27" t="s">
         <v>29</v>
       </c>
@@ -12670,7 +12609,7 @@
       <c r="E98" s="25">
         <v>11.6</v>
       </c>
-      <c r="F98" s="72">
+      <c r="F98" s="70">
         <v>0</v>
       </c>
       <c r="G98" s="29">
@@ -12683,7 +12622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99" s="16" t="s">
         <v>29</v>
       </c>
@@ -12712,7 +12651,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100" s="16" t="s">
         <v>29</v>
       </c>
@@ -12741,7 +12680,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101" s="16" t="s">
         <v>29</v>
       </c>
@@ -12770,7 +12709,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A102" s="16" t="s">
         <v>29</v>
       </c>
@@ -12799,7 +12738,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="103" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A103" s="26" t="s">
         <v>29</v>
       </c>
@@ -12815,7 +12754,7 @@
       <c r="E103" s="24">
         <v>32.200000000000003</v>
       </c>
-      <c r="F103" s="71">
+      <c r="F103" s="69">
         <v>28.464773785323661</v>
       </c>
       <c r="G103" s="29">
@@ -12828,7 +12767,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A104" s="27" t="s">
         <v>32</v>
       </c>
@@ -12844,7 +12783,7 @@
       <c r="E104" s="25">
         <v>11.6</v>
       </c>
-      <c r="F104" s="72">
+      <c r="F104" s="70">
         <v>0</v>
       </c>
       <c r="G104" s="29">
@@ -12857,7 +12796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A105" s="16" t="s">
         <v>32</v>
       </c>
@@ -12886,7 +12825,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A106" s="16" t="s">
         <v>32</v>
       </c>
@@ -12915,7 +12854,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="107" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A107" s="26" t="s">
         <v>32</v>
       </c>
@@ -12931,7 +12870,7 @@
       <c r="E107" s="24">
         <v>0</v>
       </c>
-      <c r="F107" s="71">
+      <c r="F107" s="69">
         <v>21.059589729316489</v>
       </c>
       <c r="G107" s="29">
@@ -12944,7 +12883,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A108" s="27" t="s">
         <v>36</v>
       </c>
@@ -12960,7 +12899,7 @@
       <c r="E108" s="25">
         <v>13.3</v>
       </c>
-      <c r="F108" s="72">
+      <c r="F108" s="70">
         <v>0</v>
       </c>
       <c r="G108" s="29">
@@ -12973,7 +12912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A109" s="16" t="s">
         <v>36</v>
       </c>
@@ -13002,7 +12941,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A110" s="16" t="s">
         <v>36</v>
       </c>
@@ -13031,7 +12970,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="111" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A111" s="26" t="s">
         <v>36</v>
       </c>
@@ -13047,7 +12986,7 @@
       <c r="E111" s="24">
         <v>0</v>
       </c>
-      <c r="F111" s="71">
+      <c r="F111" s="69">
         <v>21.98543738017527</v>
       </c>
       <c r="G111" s="29">
@@ -13060,7 +12999,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A112" s="27" t="s">
         <v>33</v>
       </c>
@@ -13076,7 +13015,7 @@
       <c r="E112" s="25">
         <v>11.9</v>
       </c>
-      <c r="F112" s="72">
+      <c r="F112" s="70">
         <v>0</v>
       </c>
       <c r="G112" s="29">
@@ -13089,7 +13028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A113" s="16" t="s">
         <v>33</v>
       </c>
@@ -13118,7 +13057,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A114" s="16" t="s">
         <v>33</v>
       </c>
@@ -13147,7 +13086,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A115" s="16" t="s">
         <v>33</v>
       </c>
@@ -13176,7 +13115,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A116" s="16" t="s">
         <v>33</v>
       </c>
@@ -13205,7 +13144,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="117" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A117" s="26" t="s">
         <v>33</v>
       </c>
@@ -13221,7 +13160,7 @@
       <c r="E117" s="24">
         <v>27</v>
       </c>
-      <c r="F117" s="71">
+      <c r="F117" s="69">
         <v>20.716705071315097</v>
       </c>
       <c r="G117" s="29">
@@ -13234,7 +13173,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A118" s="27" t="s">
         <v>37</v>
       </c>
@@ -13250,7 +13189,7 @@
       <c r="E118" s="25">
         <v>12.4</v>
       </c>
-      <c r="F118" s="72">
+      <c r="F118" s="70">
         <v>0</v>
       </c>
       <c r="G118" s="29">
@@ -13263,7 +13202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A119" s="16" t="s">
         <v>37</v>
       </c>
@@ -13292,7 +13231,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A120" s="16" t="s">
         <v>37</v>
       </c>
@@ -13321,7 +13260,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A121" s="16" t="s">
         <v>37</v>
       </c>
@@ -13350,7 +13289,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A122" s="16" t="s">
         <v>37</v>
       </c>
@@ -13379,7 +13318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A123" s="26" t="s">
         <v>37</v>
       </c>
@@ -13395,7 +13334,7 @@
       <c r="E123" s="24">
         <v>27.4</v>
       </c>
-      <c r="F123" s="71">
+      <c r="F123" s="69">
         <v>21.517346446193446</v>
       </c>
       <c r="G123" s="29">
@@ -13415,59 +13354,59 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:Q124"/>
   <sheetViews>
     <sheetView topLeftCell="A67" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
       <selection activeCell="E99" sqref="E99:G99"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.7109375" style="30" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.140625" style="34" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.85546875" style="34" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.5703125" style="34" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="12.5703125" style="34" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" style="34" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="12.5703125" style="34" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.28515625" style="34" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="12.5703125" style="34" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.42578125" style="34" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="34" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.28515625" style="34" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.7109375" style="34" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="34"/>
+    <col min="1" max="1" width="25.6640625" style="30" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.109375" style="34" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.88671875" style="34" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.5546875" style="34" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12.5546875" style="34" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" style="34" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="12.5546875" style="34" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.33203125" style="34" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="12.5546875" style="34" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.44140625" style="34" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.6640625" style="34" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.33203125" style="34" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.6640625" style="34" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.109375" style="34"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" s="39" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="45"/>
       <c r="B1" s="38"/>
       <c r="C1" s="38"/>
       <c r="D1" s="38"/>
-      <c r="E1" s="75" t="s">
+      <c r="E1" s="76" t="s">
         <v>202</v>
       </c>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="74" t="s">
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="75" t="s">
         <v>193</v>
       </c>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="76" t="s">
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="77" t="s">
         <v>203</v>
       </c>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="73" t="s">
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="74" t="s">
         <v>194</v>
       </c>
-      <c r="O1" s="73"/>
-      <c r="P1" s="73"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
       <c r="Q1" s="38"/>
     </row>
-    <row r="2" spans="1:17" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="46" t="s">
         <v>0</v>
       </c>
@@ -13511,7 +13450,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="3" spans="1:17" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="47" t="s">
         <v>14</v>
       </c>
@@ -13564,7 +13503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:17" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="47" t="s">
         <v>14</v>
       </c>
@@ -13617,7 +13556,7 @@
         <v>0.82694777312241607</v>
       </c>
     </row>
-    <row r="5" spans="1:17" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="47" t="s">
         <v>14</v>
       </c>
@@ -13670,7 +13609,7 @@
         <v>0.67553311614555633</v>
       </c>
     </row>
-    <row r="6" spans="1:17" s="35" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" s="35" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="48" t="s">
         <v>14</v>
       </c>
@@ -13723,7 +13662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:17" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="49" t="s">
         <v>15</v>
       </c>
@@ -13776,7 +13715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:17" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="49" t="s">
         <v>15</v>
       </c>
@@ -13829,7 +13768,7 @@
         <v>0.77310644316609189</v>
       </c>
     </row>
-    <row r="9" spans="1:17" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="47" t="s">
         <v>15</v>
       </c>
@@ -13882,7 +13821,7 @@
         <v>0.65650490084889412</v>
       </c>
     </row>
-    <row r="10" spans="1:17" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="47" t="s">
         <v>15</v>
       </c>
@@ -13935,7 +13874,7 @@
         <v>0.58745007021866047</v>
       </c>
     </row>
-    <row r="11" spans="1:17" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="47" t="s">
         <v>15</v>
       </c>
@@ -13988,7 +13927,7 @@
         <v>0.60825395977892449</v>
       </c>
     </row>
-    <row r="12" spans="1:17" s="35" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" s="35" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="48" t="s">
         <v>15</v>
       </c>
@@ -14041,7 +13980,7 @@
         <v>0.61744538417679928</v>
       </c>
     </row>
-    <row r="13" spans="1:17" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="49" t="s">
         <v>16</v>
       </c>
@@ -14094,7 +14033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:17" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="49" t="s">
         <v>16</v>
       </c>
@@ -14147,7 +14086,7 @@
         <v>0.76303888330689007</v>
       </c>
     </row>
-    <row r="15" spans="1:17" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="47" t="s">
         <v>16</v>
       </c>
@@ -14200,7 +14139,7 @@
         <v>0.66762953474689202</v>
       </c>
     </row>
-    <row r="16" spans="1:17" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="47" t="s">
         <v>16</v>
       </c>
@@ -14253,7 +14192,7 @@
         <v>0.50933560957660795</v>
       </c>
     </row>
-    <row r="17" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="47" t="s">
         <v>16</v>
       </c>
@@ -14306,7 +14245,7 @@
         <v>0.56058360873389834</v>
       </c>
     </row>
-    <row r="18" spans="1:16" s="35" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" s="35" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="48" t="s">
         <v>16</v>
       </c>
@@ -14359,7 +14298,7 @@
         <v>0.63586633180345753</v>
       </c>
     </row>
-    <row r="19" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="47" t="s">
         <v>34</v>
       </c>
@@ -14412,7 +14351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="47" t="s">
         <v>34</v>
       </c>
@@ -14465,7 +14404,7 @@
         <v>0.7892519280085919</v>
       </c>
     </row>
-    <row r="21" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="47" t="s">
         <v>34</v>
       </c>
@@ -14518,7 +14457,7 @@
         <v>0.67571794401978225</v>
       </c>
     </row>
-    <row r="22" spans="1:16" s="35" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" s="35" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="48" t="s">
         <v>34</v>
       </c>
@@ -14571,7 +14510,7 @@
         <v>0.37905665536280819</v>
       </c>
     </row>
-    <row r="23" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="49" t="s">
         <v>17</v>
       </c>
@@ -14624,7 +14563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="49" t="s">
         <v>17</v>
       </c>
@@ -14677,7 +14616,7 @@
         <v>0.7459365820340117</v>
       </c>
     </row>
-    <row r="25" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="49" t="s">
         <v>17</v>
       </c>
@@ -14730,7 +14669,7 @@
         <v>0.63325778392684673</v>
       </c>
     </row>
-    <row r="26" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="49" t="s">
         <v>17</v>
       </c>
@@ -14783,7 +14722,7 @@
         <v>0.4093640646031364</v>
       </c>
     </row>
-    <row r="27" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="49" t="s">
         <v>17</v>
       </c>
@@ -14836,7 +14775,7 @@
         <v>0.47453166289973175</v>
       </c>
     </row>
-    <row r="28" spans="1:16" s="35" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" s="35" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="48" t="s">
         <v>17</v>
       </c>
@@ -14889,7 +14828,7 @@
         <v>0.51458720945418757</v>
       </c>
     </row>
-    <row r="29" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="47" t="s">
         <v>18</v>
       </c>
@@ -14942,7 +14881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="47" t="s">
         <v>18</v>
       </c>
@@ -14995,7 +14934,7 @@
         <v>0.83563163855658773</v>
       </c>
     </row>
-    <row r="31" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="47" t="s">
         <v>18</v>
       </c>
@@ -15048,7 +14987,7 @@
         <v>0.66963550452576126</v>
       </c>
     </row>
-    <row r="32" spans="1:16" s="35" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16" s="35" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="48" t="s">
         <v>18</v>
       </c>
@@ -15101,7 +15040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="47" t="s">
         <v>35</v>
       </c>
@@ -15154,7 +15093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="47" t="s">
         <v>35</v>
       </c>
@@ -15207,7 +15146,7 @@
         <v>0.80832623607705878</v>
       </c>
     </row>
-    <row r="35" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="47" t="s">
         <v>35</v>
       </c>
@@ -15260,7 +15199,7 @@
         <v>0.64511446690394958</v>
       </c>
     </row>
-    <row r="36" spans="1:16" s="35" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:16" s="35" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="48" t="s">
         <v>35</v>
       </c>
@@ -15313,7 +15252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="49" t="s">
         <v>19</v>
       </c>
@@ -15366,7 +15305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="49" t="s">
         <v>19</v>
       </c>
@@ -15419,7 +15358,7 @@
         <v>0.73214119669836553</v>
       </c>
     </row>
-    <row r="39" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="49" t="s">
         <v>19</v>
       </c>
@@ -15472,7 +15411,7 @@
         <v>0.59276420699370658</v>
       </c>
     </row>
-    <row r="40" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="49" t="s">
         <v>19</v>
       </c>
@@ -15525,7 +15464,7 @@
         <v>0.63157506172308264</v>
       </c>
     </row>
-    <row r="41" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="49" t="s">
         <v>19</v>
       </c>
@@ -15578,7 +15517,7 @@
         <v>0.63734531764863933</v>
       </c>
     </row>
-    <row r="42" spans="1:16" s="35" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:16" s="35" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="48" t="s">
         <v>19</v>
       </c>
@@ -15631,7 +15570,7 @@
         <v>0.68309482854487047</v>
       </c>
     </row>
-    <row r="43" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="49" t="s">
         <v>20</v>
       </c>
@@ -15684,7 +15623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="49" t="s">
         <v>20</v>
       </c>
@@ -15737,7 +15676,7 @@
         <v>0.77448301571735378</v>
       </c>
     </row>
-    <row r="45" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="49" t="s">
         <v>20</v>
       </c>
@@ -15790,7 +15729,7 @@
         <v>0.64103699938063985</v>
       </c>
     </row>
-    <row r="46" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="49" t="s">
         <v>20</v>
       </c>
@@ -15843,7 +15782,7 @@
         <v>0.31809543344030961</v>
       </c>
     </row>
-    <row r="47" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="49" t="s">
         <v>20</v>
       </c>
@@ -15896,7 +15835,7 @@
         <v>0.43360127334148268</v>
       </c>
     </row>
-    <row r="48" spans="1:16" s="35" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:16" s="35" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="48" t="s">
         <v>20</v>
       </c>
@@ -15949,7 +15888,7 @@
         <v>0.51609905944738466</v>
       </c>
     </row>
-    <row r="49" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="49" t="s">
         <v>21</v>
       </c>
@@ -16002,7 +15941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="49" t="s">
         <v>21</v>
       </c>
@@ -16055,7 +15994,7 @@
         <v>0.82872018239213652</v>
       </c>
     </row>
-    <row r="51" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="49" t="s">
         <v>21</v>
       </c>
@@ -16108,7 +16047,7 @@
         <v>0.63216626417722122</v>
       </c>
     </row>
-    <row r="52" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="49" t="s">
         <v>21</v>
       </c>
@@ -16161,7 +16100,7 @@
         <v>0.45380785913293648</v>
       </c>
     </row>
-    <row r="53" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="49" t="s">
         <v>21</v>
       </c>
@@ -16214,7 +16153,7 @@
         <v>0.54135239785179401</v>
       </c>
     </row>
-    <row r="54" spans="1:16" s="35" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:16" s="35" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="48" t="s">
         <v>21</v>
       </c>
@@ -16267,7 +16206,7 @@
         <v>0.63216494195860418</v>
       </c>
     </row>
-    <row r="55" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="47" t="s">
         <v>22</v>
       </c>
@@ -16320,7 +16259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="47" t="s">
         <v>22</v>
       </c>
@@ -16373,7 +16312,7 @@
         <v>0.78170094312348071</v>
       </c>
     </row>
-    <row r="57" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="47" t="s">
         <v>22</v>
       </c>
@@ -16426,7 +16365,7 @@
         <v>0.62281925061560872</v>
       </c>
     </row>
-    <row r="58" spans="1:16" s="35" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:16" s="35" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="48" t="s">
         <v>22</v>
       </c>
@@ -16479,7 +16418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="47" t="s">
         <v>23</v>
       </c>
@@ -16532,7 +16471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="47" t="s">
         <v>23</v>
       </c>
@@ -16585,7 +16524,7 @@
         <v>0.74549611987127273</v>
       </c>
     </row>
-    <row r="61" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="47" t="s">
         <v>23</v>
       </c>
@@ -16638,7 +16577,7 @@
         <v>0.60755756217933743</v>
       </c>
     </row>
-    <row r="62" spans="1:16" s="35" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:16" s="35" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="48" t="s">
         <v>23</v>
       </c>
@@ -16691,7 +16630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="47" t="s">
         <v>24</v>
       </c>
@@ -16744,7 +16683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="47" t="s">
         <v>24</v>
       </c>
@@ -16797,7 +16736,7 @@
         <v>0.84922990123861475</v>
       </c>
     </row>
-    <row r="65" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A65" s="47" t="s">
         <v>24</v>
       </c>
@@ -16850,7 +16789,7 @@
         <v>0.62646057658598409</v>
       </c>
     </row>
-    <row r="66" spans="1:16" s="35" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:16" s="35" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="48" t="s">
         <v>24</v>
       </c>
@@ -16903,7 +16842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A67" s="49" t="s">
         <v>25</v>
       </c>
@@ -16956,7 +16895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A68" s="49" t="s">
         <v>25</v>
       </c>
@@ -17009,7 +16948,7 @@
         <v>0.77793813402627299</v>
       </c>
     </row>
-    <row r="69" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A69" s="49" t="s">
         <v>25</v>
       </c>
@@ -17062,7 +17001,7 @@
         <v>0.5674651835945157</v>
       </c>
     </row>
-    <row r="70" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A70" s="49" t="s">
         <v>25</v>
       </c>
@@ -17115,7 +17054,7 @@
         <v>0.25100142183861829</v>
       </c>
     </row>
-    <row r="71" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A71" s="49" t="s">
         <v>25</v>
       </c>
@@ -17168,7 +17107,7 @@
         <v>0.40785375730176121</v>
       </c>
     </row>
-    <row r="72" spans="1:16" s="35" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:16" s="35" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="48" t="s">
         <v>25</v>
       </c>
@@ -17221,7 +17160,7 @@
         <v>0.34037035185725212</v>
       </c>
     </row>
-    <row r="73" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A73" s="49" t="s">
         <v>26</v>
       </c>
@@ -17274,7 +17213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A74" s="49" t="s">
         <v>26</v>
       </c>
@@ -17327,7 +17266,7 @@
         <v>0.77348996456037233</v>
       </c>
     </row>
-    <row r="75" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A75" s="49" t="s">
         <v>26</v>
       </c>
@@ -17380,7 +17319,7 @@
         <v>0.57132732089085669</v>
       </c>
     </row>
-    <row r="76" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A76" s="49" t="s">
         <v>26</v>
       </c>
@@ -17433,7 +17372,7 @@
         <v>0.51339922225614665</v>
       </c>
     </row>
-    <row r="77" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A77" s="49" t="s">
         <v>26</v>
       </c>
@@ -17486,7 +17425,7 @@
         <v>0.53932051934485126</v>
       </c>
     </row>
-    <row r="78" spans="1:16" s="35" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:16" s="35" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="48" t="s">
         <v>26</v>
       </c>
@@ -17539,7 +17478,7 @@
         <v>0.52828622807814973</v>
       </c>
     </row>
-    <row r="79" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A79" s="47" t="s">
         <v>27</v>
       </c>
@@ -17592,7 +17531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A80" s="47" t="s">
         <v>27</v>
       </c>
@@ -17645,7 +17584,7 @@
         <v>0.81217680252474633</v>
       </c>
     </row>
-    <row r="81" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A81" s="47" t="s">
         <v>27</v>
       </c>
@@ -17698,7 +17637,7 @@
         <v>0.59260290439948715</v>
       </c>
     </row>
-    <row r="82" spans="1:16" s="35" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:16" s="35" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="48" t="s">
         <v>27</v>
       </c>
@@ -17751,7 +17690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A83" s="47" t="s">
         <v>28</v>
       </c>
@@ -17804,7 +17743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A84" s="47" t="s">
         <v>28</v>
       </c>
@@ -17857,7 +17796,7 @@
         <v>0.78705634786462109</v>
       </c>
     </row>
-    <row r="85" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A85" s="47" t="s">
         <v>28</v>
       </c>
@@ -17910,7 +17849,7 @@
         <v>0.56944898088479412</v>
       </c>
     </row>
-    <row r="86" spans="1:16" s="35" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:16" s="35" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86" s="48" t="s">
         <v>28</v>
       </c>
@@ -17963,7 +17902,7 @@
         <v>9.0251287491151522E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A87" s="49" t="s">
         <v>30</v>
       </c>
@@ -18016,7 +17955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A88" s="49" t="s">
         <v>30</v>
       </c>
@@ -18069,7 +18008,7 @@
         <v>0.76890071308703922</v>
       </c>
     </row>
-    <row r="89" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A89" s="49" t="s">
         <v>30</v>
       </c>
@@ -18122,7 +18061,7 @@
         <v>0.5840264856351145</v>
       </c>
     </row>
-    <row r="90" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A90" s="49" t="s">
         <v>30</v>
       </c>
@@ -18175,7 +18114,7 @@
         <v>0.55366488404482617</v>
       </c>
     </row>
-    <row r="91" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A91" s="49" t="s">
         <v>30</v>
       </c>
@@ -18228,7 +18167,7 @@
         <v>0.6120550237875616</v>
       </c>
     </row>
-    <row r="92" spans="1:16" s="35" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:16" s="35" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A92" s="48" t="s">
         <v>30</v>
       </c>
@@ -18281,7 +18220,7 @@
         <v>0.67283592168236694</v>
       </c>
     </row>
-    <row r="93" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A93" s="49" t="s">
         <v>31</v>
       </c>
@@ -18334,7 +18273,7 @@
         <v>0.98455633456353597</v>
       </c>
     </row>
-    <row r="94" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A94" s="49" t="s">
         <v>31</v>
       </c>
@@ -18387,7 +18326,7 @@
         <v>0.81712445748912921</v>
       </c>
     </row>
-    <row r="95" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A95" s="49" t="s">
         <v>31</v>
       </c>
@@ -18440,7 +18379,7 @@
         <v>0.5865603258552079</v>
       </c>
     </row>
-    <row r="96" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A96" s="49" t="s">
         <v>31</v>
       </c>
@@ -18493,7 +18432,7 @@
         <v>0.67298599434845008</v>
       </c>
     </row>
-    <row r="97" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A97" s="49" t="s">
         <v>31</v>
       </c>
@@ -18546,7 +18485,7 @@
         <v>0.69340536057093483</v>
       </c>
     </row>
-    <row r="98" spans="1:16" s="35" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:16" s="35" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A98" s="48" t="s">
         <v>31</v>
       </c>
@@ -18599,7 +18538,7 @@
         <v>0.65232554369741647</v>
       </c>
     </row>
-    <row r="99" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A99" s="49" t="s">
         <v>29</v>
       </c>
@@ -18652,7 +18591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A100" s="49" t="s">
         <v>29</v>
       </c>
@@ -18705,7 +18644,7 @@
         <v>0.77785539661040026</v>
       </c>
     </row>
-    <row r="101" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A101" s="49" t="s">
         <v>29</v>
       </c>
@@ -18758,7 +18697,7 @@
         <v>0.57482596908681804</v>
       </c>
     </row>
-    <row r="102" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A102" s="49" t="s">
         <v>29</v>
       </c>
@@ -18811,7 +18750,7 @@
         <v>0.41526135540617554</v>
       </c>
     </row>
-    <row r="103" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A103" s="49" t="s">
         <v>29</v>
       </c>
@@ -18864,7 +18803,7 @@
         <v>0.52463329192255426</v>
       </c>
     </row>
-    <row r="104" spans="1:16" s="35" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:16" s="35" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A104" s="48" t="s">
         <v>29</v>
       </c>
@@ -18917,7 +18856,7 @@
         <v>0.58314648997596041</v>
       </c>
     </row>
-    <row r="105" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A105" s="47" t="s">
         <v>32</v>
       </c>
@@ -18970,7 +18909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A106" s="47" t="s">
         <v>32</v>
       </c>
@@ -19023,7 +18962,7 @@
         <v>0.79434473710410436</v>
       </c>
     </row>
-    <row r="107" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A107" s="47" t="s">
         <v>32</v>
       </c>
@@ -19076,7 +19015,7 @@
         <v>0.58667844106721301</v>
       </c>
     </row>
-    <row r="108" spans="1:16" s="35" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:16" s="35" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A108" s="48" t="s">
         <v>32</v>
       </c>
@@ -19129,7 +19068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A109" s="47" t="s">
         <v>36</v>
       </c>
@@ -19182,7 +19121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A110" s="47" t="s">
         <v>36</v>
       </c>
@@ -19235,7 +19174,7 @@
         <v>0.8349567243913002</v>
       </c>
     </row>
-    <row r="111" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A111" s="47" t="s">
         <v>36</v>
       </c>
@@ -19288,7 +19227,7 @@
         <v>0.60071987271051341</v>
       </c>
     </row>
-    <row r="112" spans="1:16" s="35" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:16" s="35" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A112" s="48" t="s">
         <v>36</v>
       </c>
@@ -19341,7 +19280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A113" s="49" t="s">
         <v>33</v>
       </c>
@@ -19394,7 +19333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A114" s="49" t="s">
         <v>33</v>
       </c>
@@ -19447,7 +19386,7 @@
         <v>0.85650078180136813</v>
       </c>
     </row>
-    <row r="115" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A115" s="49" t="s">
         <v>33</v>
       </c>
@@ -19500,7 +19439,7 @@
         <v>0.59819369979502113</v>
       </c>
     </row>
-    <row r="116" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A116" s="49" t="s">
         <v>33</v>
       </c>
@@ -19553,7 +19492,7 @@
         <v>0.61187518060454116</v>
       </c>
     </row>
-    <row r="117" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A117" s="49" t="s">
         <v>33</v>
       </c>
@@ -19606,7 +19545,7 @@
         <v>0.63844079003175391</v>
       </c>
     </row>
-    <row r="118" spans="1:16" s="35" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:16" s="35" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A118" s="48" t="s">
         <v>33</v>
       </c>
@@ -19659,7 +19598,7 @@
         <v>0.63778630506753187</v>
       </c>
     </row>
-    <row r="119" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A119" s="49" t="s">
         <v>37</v>
       </c>
@@ -19712,7 +19651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A120" s="49" t="s">
         <v>37</v>
       </c>
@@ -19765,7 +19704,7 @@
         <v>0.87888816572160944</v>
       </c>
     </row>
-    <row r="121" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A121" s="49" t="s">
         <v>37</v>
       </c>
@@ -19818,7 +19757,7 @@
         <v>0.62923936034112482</v>
       </c>
     </row>
-    <row r="122" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A122" s="49" t="s">
         <v>37</v>
       </c>
@@ -19871,7 +19810,7 @@
         <v>0.56961057779474922</v>
       </c>
     </row>
-    <row r="123" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A123" s="49" t="s">
         <v>37</v>
       </c>
@@ -19924,7 +19863,7 @@
         <v>0.64612103278007593</v>
       </c>
     </row>
-    <row r="124" spans="1:16" s="35" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:16" s="35" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A124" s="48" t="s">
         <v>37</v>
       </c>
@@ -19978,7 +19917,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="C1:C124"/>
+  <autoFilter ref="C1:C124" xr:uid="{00000000-0009-0000-0000-000007000000}"/>
   <mergeCells count="4">
     <mergeCell ref="N1:P1"/>
     <mergeCell ref="H1:J1"/>
@@ -19992,999 +19931,999 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:B123"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B123"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="23.42578125" style="34" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="23.44140625" style="34" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="67">
+      <c r="B2" s="65">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="67">
+      <c r="B3" s="65">
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="67">
+      <c r="B4" s="65">
         <v>171</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="68">
+      <c r="B5" s="66">
         <v>209</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="67">
+      <c r="B6" s="65">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="67">
+      <c r="B7" s="65">
         <v>72</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="67">
+      <c r="B8" s="65">
         <v>168</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="67">
+      <c r="B9" s="65">
         <v>239</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="67">
+      <c r="B10" s="65">
         <v>275</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="68">
+      <c r="B11" s="66">
         <v>397</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="69">
+      <c r="B12" s="67">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="69">
+      <c r="B13" s="67">
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="70">
+      <c r="B14" s="68">
         <v>168</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="70">
+      <c r="B15" s="68">
         <v>239</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="70">
+      <c r="B16" s="68">
         <v>275</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="68">
+      <c r="B17" s="66">
         <v>397</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="70">
+      <c r="B18" s="68">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="70">
+      <c r="B19" s="68">
         <v>72</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="70">
+      <c r="B20" s="68">
         <v>168</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="63" t="s">
         <v>34</v>
       </c>
-      <c r="B21" s="68">
+      <c r="B21" s="66">
         <v>239</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="69">
+      <c r="B22" s="67">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="B23" s="69">
+      <c r="B23" s="67">
         <v>72</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="B24" s="69">
+      <c r="B24" s="67">
         <v>168</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="B25" s="69">
+      <c r="B25" s="67">
         <v>239</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="B26" s="69">
+      <c r="B26" s="67">
         <v>275</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="B27" s="68">
+      <c r="B27" s="66">
         <v>400</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="B28" s="70">
+      <c r="B28" s="68">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="B29" s="70">
+      <c r="B29" s="68">
         <v>72</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="B30" s="70">
+      <c r="B30" s="68">
         <v>168</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="68">
+      <c r="B31" s="66">
         <v>209</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="B32" s="70">
+      <c r="B32" s="68">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="B33" s="70">
+      <c r="B33" s="68">
         <v>72</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="B34" s="70">
+      <c r="B34" s="68">
         <v>168</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="B35" s="68">
+      <c r="B35" s="66">
         <v>209</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="B36" s="69">
+      <c r="B36" s="67">
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="B37" s="69">
+      <c r="B37" s="67">
         <v>72</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="B38" s="69">
+      <c r="B38" s="67">
         <v>168</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="B39" s="69">
+      <c r="B39" s="67">
         <v>240</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="B40" s="69">
+      <c r="B40" s="67">
         <v>275</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="B41" s="68">
+      <c r="B41" s="66">
         <v>398</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="B42" s="69">
+      <c r="B42" s="67">
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="B43" s="69">
+      <c r="B43" s="67">
         <v>72</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="B44" s="69">
+      <c r="B44" s="67">
         <v>171</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="B45" s="69">
+      <c r="B45" s="67">
         <v>240</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="B46" s="69">
+      <c r="B46" s="67">
         <v>275</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="B47" s="68">
+      <c r="B47" s="66">
         <v>398</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="B48" s="69">
+      <c r="B48" s="67">
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="B49" s="69">
+      <c r="B49" s="67">
         <v>72</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="B50" s="69">
+      <c r="B50" s="67">
         <v>171</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="B51" s="69">
+      <c r="B51" s="67">
         <v>240</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="B52" s="69">
+      <c r="B52" s="67">
         <v>275</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="B53" s="68">
+      <c r="B53" s="66">
         <v>398</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="B54" s="70">
+      <c r="B54" s="68">
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="B55" s="70">
+      <c r="B55" s="68">
         <v>72</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="B56" s="70">
+      <c r="B56" s="68">
         <v>171</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="B57" s="68">
+      <c r="B57" s="66">
         <v>209</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="B58" s="70">
+      <c r="B58" s="68">
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="B59" s="70">
+      <c r="B59" s="68">
         <v>72</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="B60" s="70">
+      <c r="B60" s="68">
         <v>171</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="B61" s="68">
+      <c r="B61" s="66">
         <v>209</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="B62" s="70">
+      <c r="B62" s="68">
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="B63" s="70">
+      <c r="B63" s="68">
         <v>72</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="B64" s="70">
+      <c r="B64" s="68">
         <v>171</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="B65" s="68">
+      <c r="B65" s="66">
         <v>209</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="B66" s="69">
+      <c r="B66" s="67">
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="B67" s="69">
+      <c r="B67" s="67">
         <v>72</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="B68" s="69">
+      <c r="B68" s="67">
         <v>171</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="B69" s="69">
+      <c r="B69" s="67">
         <v>239</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="B70" s="69">
+      <c r="B70" s="67">
         <v>275</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="B71" s="68">
+      <c r="B71" s="66">
         <v>398</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="B72" s="69">
+      <c r="B72" s="67">
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="B73" s="69">
+      <c r="B73" s="67">
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="B74" s="69">
+      <c r="B74" s="67">
         <v>171</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="B75" s="69">
+      <c r="B75" s="67">
         <v>239</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="B76" s="69">
+      <c r="B76" s="67">
         <v>275</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="B77" s="68">
+      <c r="B77" s="66">
         <v>398</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="B78" s="70">
+      <c r="B78" s="68">
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="B79" s="70">
+      <c r="B79" s="68">
         <v>72</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="B80" s="70">
+      <c r="B80" s="68">
         <v>171</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" s="63" t="s">
         <v>27</v>
       </c>
-      <c r="B81" s="68">
+      <c r="B81" s="66">
         <v>209</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="B82" s="70">
+      <c r="B82" s="68">
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="B83" s="70">
+      <c r="B83" s="68">
         <v>72</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="B84" s="70">
+      <c r="B84" s="68">
         <v>171</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="B85" s="68">
+      <c r="B85" s="66">
         <v>240</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="B86" s="69">
+      <c r="B86" s="67">
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="B87" s="69">
+      <c r="B87" s="67">
         <v>72</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="B88" s="69">
+      <c r="B88" s="67">
         <v>171</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="B89" s="69">
+      <c r="B89" s="67">
         <v>239</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="B90" s="69">
+      <c r="B90" s="67">
         <v>275</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A91" s="63" t="s">
         <v>30</v>
       </c>
-      <c r="B91" s="68">
+      <c r="B91" s="66">
         <v>398</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="B92" s="69">
+      <c r="B92" s="67">
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="B93" s="69">
+      <c r="B93" s="67">
         <v>72</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="B94" s="69">
+      <c r="B94" s="67">
         <v>171</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="B95" s="69">
+      <c r="B95" s="67">
         <v>239</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="B96" s="69">
+      <c r="B96" s="67">
         <v>275</v>
       </c>
     </row>
-    <row r="97" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A97" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="B97" s="68">
+      <c r="B97" s="66">
         <v>398</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="B98" s="69">
+      <c r="B98" s="67">
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="B99" s="69">
+      <c r="B99" s="67">
         <v>72</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="B100" s="69">
+      <c r="B100" s="67">
         <v>174</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="B101" s="69">
+      <c r="B101" s="67">
         <v>240</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="B102" s="69">
+      <c r="B102" s="67">
         <v>275</v>
       </c>
     </row>
-    <row r="103" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A103" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="B103" s="68">
+      <c r="B103" s="66">
         <v>398</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="B104" s="70">
+      <c r="B104" s="68">
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="B105" s="70">
+      <c r="B105" s="68">
         <v>72</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="B106" s="70">
+      <c r="B106" s="68">
         <v>171</v>
       </c>
     </row>
-    <row r="107" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A107" s="63" t="s">
         <v>32</v>
       </c>
-      <c r="B107" s="68">
+      <c r="B107" s="66">
         <v>209</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="B108" s="70">
+      <c r="B108" s="68">
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="B109" s="70">
+      <c r="B109" s="68">
         <v>72</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="B110" s="70">
+      <c r="B110" s="68">
         <v>171</v>
       </c>
     </row>
-    <row r="111" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A111" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="B111" s="68">
+      <c r="B111" s="66">
         <v>209</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="B112" s="69">
+      <c r="B112" s="67">
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="B113" s="69">
+      <c r="B113" s="67">
         <v>72</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="B114" s="69">
+      <c r="B114" s="67">
         <v>171</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="B115" s="69">
+      <c r="B115" s="67">
         <v>239</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="B116" s="69">
+      <c r="B116" s="67">
         <v>275</v>
       </c>
     </row>
-    <row r="117" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A117" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="B117" s="68">
+      <c r="B117" s="66">
         <v>398</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="B118" s="69">
+      <c r="B118" s="67">
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="B119" s="69">
+      <c r="B119" s="67">
         <v>72</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="B120" s="69">
+      <c r="B120" s="67">
         <v>171</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="B121" s="69">
+      <c r="B121" s="67">
         <v>239</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="B122" s="69">
+      <c r="B122" s="67">
         <v>275</v>
       </c>
     </row>
-    <row r="123" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A123" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="B123" s="68">
+      <c r="B123" s="66">
         <v>398</v>
       </c>
     </row>

--- a/myData/INPUT_R_1225sk2020_LM.xlsx
+++ b/myData/INPUT_R_1225sk2020_LM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\39348\OneDrive\Desktop\LAVORO_CHECCO\CALIBRAZIONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\39348\OneDrive\Documents\Github\3PGQslu\myData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{857F9811-8D81-4812-AB1E-60DDA6C48A4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7645053-7877-405C-A9CB-FB4995900465}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="907" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="907" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="d_site" sheetId="1" r:id="rId1"/>
@@ -2811,7 +2811,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
@@ -6177,8 +6177,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H90"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6186,7 +6186,7 @@
     <col min="1" max="1" width="25.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.33203125" style="34" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.44140625" style="14" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5.44140625" style="19" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="4.6640625" style="19" bestFit="1" customWidth="1"/>
@@ -6897,7 +6897,7 @@
       <c r="C25" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D25" s="6">
+      <c r="D25" s="5">
         <v>40</v>
       </c>
       <c r="E25" s="2">
@@ -6926,7 +6926,7 @@
       <c r="C26" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D26" s="6">
+      <c r="D26" s="5">
         <v>32</v>
       </c>
       <c r="E26" s="14">
@@ -6955,7 +6955,7 @@
       <c r="C27" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D27" s="6">
+      <c r="D27" s="5">
         <v>40</v>
       </c>
       <c r="E27" s="14">
@@ -6984,7 +6984,7 @@
       <c r="C28" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D28" s="6">
+      <c r="D28" s="5">
         <v>46</v>
       </c>
       <c r="E28" s="14">
@@ -7013,7 +7013,7 @@
       <c r="C29" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D29" s="6">
+      <c r="D29" s="5">
         <v>49</v>
       </c>
       <c r="E29" s="14">
@@ -7042,7 +7042,7 @@
       <c r="C30" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D30" s="6">
+      <c r="D30" s="5">
         <v>59</v>
       </c>
       <c r="E30" s="14">
@@ -7071,7 +7071,7 @@
       <c r="C31" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D31" s="6">
+      <c r="D31" s="5">
         <v>32</v>
       </c>
       <c r="E31" s="14">
@@ -7100,7 +7100,7 @@
       <c r="C32" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D32" s="6">
+      <c r="D32" s="5">
         <v>40</v>
       </c>
       <c r="E32" s="14">
@@ -7129,7 +7129,7 @@
       <c r="C33" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D33" s="6">
+      <c r="D33" s="5">
         <v>46</v>
       </c>
       <c r="E33" s="14">
@@ -7158,7 +7158,7 @@
       <c r="C34" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D34" s="6">
+      <c r="D34" s="5">
         <v>49</v>
       </c>
       <c r="E34" s="14">
@@ -7187,7 +7187,7 @@
       <c r="C35" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D35" s="6">
+      <c r="D35" s="5">
         <v>59</v>
       </c>
       <c r="E35" s="14">
@@ -7216,7 +7216,7 @@
       <c r="C36" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D36" s="6">
+      <c r="D36" s="5">
         <v>32</v>
       </c>
       <c r="E36" s="14">
@@ -7245,7 +7245,7 @@
       <c r="C37" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D37" s="6">
+      <c r="D37" s="5">
         <v>40</v>
       </c>
       <c r="E37" s="14">
@@ -7274,7 +7274,7 @@
       <c r="C38" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D38" s="6">
+      <c r="D38" s="5">
         <v>46</v>
       </c>
       <c r="E38" s="14">
@@ -7303,7 +7303,7 @@
       <c r="C39" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D39" s="6">
+      <c r="D39" s="5">
         <v>49</v>
       </c>
       <c r="E39" s="14">
@@ -7332,7 +7332,7 @@
       <c r="C40" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D40" s="6">
+      <c r="D40" s="5">
         <v>59</v>
       </c>
       <c r="E40" s="14">
@@ -7361,7 +7361,7 @@
       <c r="C41" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D41" s="6">
+      <c r="D41" s="5">
         <v>32</v>
       </c>
       <c r="E41" s="14">
@@ -7390,7 +7390,7 @@
       <c r="C42" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D42" s="6">
+      <c r="D42" s="5">
         <v>40</v>
       </c>
       <c r="E42" s="14">
@@ -7419,7 +7419,7 @@
       <c r="C43" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D43" s="6">
+      <c r="D43" s="5">
         <v>32</v>
       </c>
       <c r="E43" s="14">
@@ -7448,7 +7448,7 @@
       <c r="C44" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D44" s="6">
+      <c r="D44" s="5">
         <v>40</v>
       </c>
       <c r="E44" s="14">
@@ -7477,7 +7477,7 @@
       <c r="C45" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D45" s="6">
+      <c r="D45" s="5">
         <v>32</v>
       </c>
       <c r="E45" s="14">
@@ -7506,7 +7506,7 @@
       <c r="C46" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D46" s="6">
+      <c r="D46" s="5">
         <v>40</v>
       </c>
       <c r="E46" s="14">
@@ -7535,7 +7535,7 @@
       <c r="C47" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D47" s="6">
+      <c r="D47" s="5">
         <v>32</v>
       </c>
       <c r="E47" s="14">
@@ -7564,7 +7564,7 @@
       <c r="C48" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D48" s="6">
+      <c r="D48" s="5">
         <v>40</v>
       </c>
       <c r="E48" s="14">
@@ -7593,7 +7593,7 @@
       <c r="C49" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D49" s="6">
+      <c r="D49" s="5">
         <v>46</v>
       </c>
       <c r="E49" s="14">
@@ -7622,7 +7622,7 @@
       <c r="C50" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D50" s="6">
+      <c r="D50" s="5">
         <v>49</v>
       </c>
       <c r="E50" s="14">
@@ -7651,7 +7651,7 @@
       <c r="C51" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D51" s="6">
+      <c r="D51" s="5">
         <v>59</v>
       </c>
       <c r="E51" s="14">
@@ -7680,7 +7680,7 @@
       <c r="C52" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D52" s="6">
+      <c r="D52" s="5">
         <v>32</v>
       </c>
       <c r="E52" s="14">
@@ -7709,7 +7709,7 @@
       <c r="C53" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D53" s="6">
+      <c r="D53" s="5">
         <v>40</v>
       </c>
       <c r="E53" s="14">
@@ -7738,7 +7738,7 @@
       <c r="C54" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D54" s="6">
+      <c r="D54" s="5">
         <v>46</v>
       </c>
       <c r="E54" s="14">
@@ -7767,7 +7767,7 @@
       <c r="C55" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D55" s="6">
+      <c r="D55" s="5">
         <v>49</v>
       </c>
       <c r="E55" s="14">
@@ -7796,7 +7796,7 @@
       <c r="C56" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D56" s="6">
+      <c r="D56" s="5">
         <v>59</v>
       </c>
       <c r="E56" s="14">
@@ -7825,7 +7825,7 @@
       <c r="C57" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D57" s="6">
+      <c r="D57" s="5">
         <v>32</v>
       </c>
       <c r="E57" s="14">
@@ -7854,7 +7854,7 @@
       <c r="C58" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D58" s="6">
+      <c r="D58" s="5">
         <v>40</v>
       </c>
       <c r="E58" s="14">
@@ -7883,7 +7883,7 @@
       <c r="C59" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D59" s="6">
+      <c r="D59" s="5">
         <v>32</v>
       </c>
       <c r="E59" s="14">
@@ -7912,7 +7912,7 @@
       <c r="C60" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D60" s="6">
+      <c r="D60" s="5">
         <v>40</v>
       </c>
       <c r="E60" s="14">
@@ -7941,7 +7941,7 @@
       <c r="C61" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D61" s="6">
+      <c r="D61" s="5">
         <v>46</v>
       </c>
       <c r="E61" s="14">
@@ -7970,7 +7970,7 @@
       <c r="C62" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D62" s="6">
+      <c r="D62" s="5">
         <v>32</v>
       </c>
       <c r="E62" s="14">
@@ -7999,7 +7999,7 @@
       <c r="C63" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D63" s="6">
+      <c r="D63" s="5">
         <v>40</v>
       </c>
       <c r="E63" s="14">
@@ -8028,7 +8028,7 @@
       <c r="C64" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D64" s="6">
+      <c r="D64" s="5">
         <v>46</v>
       </c>
       <c r="E64" s="14">
@@ -8057,7 +8057,7 @@
       <c r="C65" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D65" s="6">
+      <c r="D65" s="5">
         <v>49</v>
       </c>
       <c r="E65" s="14">
@@ -8086,7 +8086,7 @@
       <c r="C66" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D66" s="6">
+      <c r="D66" s="5">
         <v>59</v>
       </c>
       <c r="E66" s="14">
@@ -8115,7 +8115,7 @@
       <c r="C67" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D67" s="6">
+      <c r="D67" s="5">
         <v>32</v>
       </c>
       <c r="E67" s="14">
@@ -8144,7 +8144,7 @@
       <c r="C68" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D68" s="6">
+      <c r="D68" s="5">
         <v>40</v>
       </c>
       <c r="E68" s="14">
@@ -8173,7 +8173,7 @@
       <c r="C69" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D69" s="6">
+      <c r="D69" s="5">
         <v>46</v>
       </c>
       <c r="E69" s="14">
@@ -8202,7 +8202,7 @@
       <c r="C70" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D70" s="6">
+      <c r="D70" s="5">
         <v>49</v>
       </c>
       <c r="E70" s="14">
@@ -8231,7 +8231,7 @@
       <c r="C71" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D71" s="6">
+      <c r="D71" s="5">
         <v>59</v>
       </c>
       <c r="E71" s="14">
@@ -8260,7 +8260,7 @@
       <c r="C72" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D72" s="6">
+      <c r="D72" s="5">
         <v>32</v>
       </c>
       <c r="E72" s="14">
@@ -8289,7 +8289,7 @@
       <c r="C73" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D73" s="6">
+      <c r="D73" s="5">
         <v>40</v>
       </c>
       <c r="E73" s="14">
@@ -8318,7 +8318,7 @@
       <c r="C74" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D74" s="6">
+      <c r="D74" s="5">
         <v>46</v>
       </c>
       <c r="E74" s="14">
@@ -8347,7 +8347,7 @@
       <c r="C75" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D75" s="6">
+      <c r="D75" s="5">
         <v>49</v>
       </c>
       <c r="E75" s="14">
@@ -8376,7 +8376,7 @@
       <c r="C76" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D76" s="6">
+      <c r="D76" s="5">
         <v>59</v>
       </c>
       <c r="E76" s="14">
@@ -8405,7 +8405,7 @@
       <c r="C77" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D77" s="6">
+      <c r="D77" s="5">
         <v>32</v>
       </c>
       <c r="E77" s="14">
@@ -8434,7 +8434,7 @@
       <c r="C78" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D78" s="6">
+      <c r="D78" s="5">
         <v>40</v>
       </c>
       <c r="E78" s="14">
@@ -8463,7 +8463,7 @@
       <c r="C79" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D79" s="6">
+      <c r="D79" s="5">
         <v>32</v>
       </c>
       <c r="E79" s="14">
@@ -8492,7 +8492,7 @@
       <c r="C80" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D80" s="6">
+      <c r="D80" s="5">
         <v>40</v>
       </c>
       <c r="E80" s="14">
@@ -8521,7 +8521,7 @@
       <c r="C81" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D81" s="6">
+      <c r="D81" s="5">
         <v>32</v>
       </c>
       <c r="E81" s="14">
@@ -8550,7 +8550,7 @@
       <c r="C82" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D82" s="6">
+      <c r="D82" s="5">
         <v>40</v>
       </c>
       <c r="E82" s="14">
@@ -8579,7 +8579,7 @@
       <c r="C83" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D83" s="6">
+      <c r="D83" s="5">
         <v>46</v>
       </c>
       <c r="E83" s="14">
@@ -8608,7 +8608,7 @@
       <c r="C84" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D84" s="6">
+      <c r="D84" s="5">
         <v>49</v>
       </c>
       <c r="E84" s="14">
@@ -8637,7 +8637,7 @@
       <c r="C85" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D85" s="6">
+      <c r="D85" s="5">
         <v>59</v>
       </c>
       <c r="E85" s="14">
@@ -8666,7 +8666,7 @@
       <c r="C86" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D86" s="6">
+      <c r="D86" s="5">
         <v>32</v>
       </c>
       <c r="E86" s="14">
@@ -8695,7 +8695,7 @@
       <c r="C87" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D87" s="6">
+      <c r="D87" s="5">
         <v>40</v>
       </c>
       <c r="E87" s="14">
@@ -8724,7 +8724,7 @@
       <c r="C88" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D88" s="6">
+      <c r="D88" s="5">
         <v>46</v>
       </c>
       <c r="E88" s="14">
@@ -8753,7 +8753,7 @@
       <c r="C89" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D89" s="6">
+      <c r="D89" s="5">
         <v>49</v>
       </c>
       <c r="E89" s="14">
@@ -8782,7 +8782,7 @@
       <c r="C90" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D90" s="6">
+      <c r="D90" s="5">
         <v>59</v>
       </c>
       <c r="E90" s="14">
